--- a/SA2409_test.xlsx
+++ b/SA2409_test.xlsx
@@ -545,19 +545,19 @@
         <v>99</v>
       </c>
       <c r="B2" t="n">
-        <v>1319999</v>
+        <v>51487969</v>
       </c>
       <c r="C2" t="n">
-        <v>1704856500</v>
+        <v>1710990900</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SA24091704856500</t>
+          <t>SA24091710990900</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024-01-10 11:15:00</t>
+          <t>2024-03-21 11:15:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -566,28 +566,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1840</v>
+        <v>1829</v>
       </c>
       <c r="H2" t="n">
-        <v>1841</v>
+        <v>1833</v>
       </c>
       <c r="I2" t="n">
-        <v>1836</v>
+        <v>1826</v>
       </c>
       <c r="J2" t="n">
-        <v>1839</v>
+        <v>1832</v>
       </c>
       <c r="K2" t="n">
-        <v>1338</v>
+        <v>10307</v>
       </c>
       <c r="L2" t="n">
-        <v>125361</v>
+        <v>459120</v>
       </c>
       <c r="M2" t="n">
-        <v>1839</v>
+        <v>1832</v>
       </c>
       <c r="N2" t="n">
-        <v>1839</v>
+        <v>1832</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -617,19 +617,19 @@
         <v>98</v>
       </c>
       <c r="B3" t="n">
-        <v>1344527</v>
+        <v>51518629</v>
       </c>
       <c r="C3" t="n">
-        <v>1704857400</v>
+        <v>1710991800</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SA24091704857400</t>
+          <t>SA24091710991800</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024-01-10 11:30:00</t>
+          <t>2024-03-21 11:30:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -638,31 +638,31 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1838</v>
+        <v>1832</v>
       </c>
       <c r="H3" t="n">
-        <v>1839</v>
+        <v>1846</v>
       </c>
       <c r="I3" t="n">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="J3" t="n">
-        <v>1834</v>
+        <v>1845</v>
       </c>
       <c r="K3" t="n">
-        <v>4623</v>
+        <v>20055</v>
       </c>
       <c r="L3" t="n">
-        <v>125620</v>
+        <v>460655</v>
       </c>
       <c r="M3" t="n">
-        <v>1837.333333333333</v>
+        <v>1836.333333333333</v>
       </c>
       <c r="N3" t="n">
-        <v>1838.090909090909</v>
+        <v>1834.363636363636</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7575757575755233</v>
+        <v>1.969696969697225</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V3" t="inlineStr"/>
     </row>
@@ -689,19 +689,19 @@
         <v>97</v>
       </c>
       <c r="B4" t="n">
-        <v>1408913</v>
+        <v>51553377</v>
       </c>
       <c r="C4" t="n">
-        <v>1704865500</v>
+        <v>1710999900</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SA24091704865500</t>
+          <t>SA24091710999900</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024-01-10 13:45:00</t>
+          <t>2024-03-21 13:45:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1833</v>
+        <v>1846</v>
       </c>
       <c r="H4" t="n">
-        <v>1835</v>
+        <v>1865</v>
       </c>
       <c r="I4" t="n">
-        <v>1827</v>
+        <v>1841</v>
       </c>
       <c r="J4" t="n">
-        <v>1832</v>
+        <v>1864</v>
       </c>
       <c r="K4" t="n">
-        <v>2741</v>
+        <v>42377</v>
       </c>
       <c r="L4" t="n">
-        <v>126597</v>
+        <v>460001</v>
       </c>
       <c r="M4" t="n">
-        <v>1835.555555555556</v>
+        <v>1845.555555555556</v>
       </c>
       <c r="N4" t="n">
-        <v>1836.98347107438</v>
+        <v>1839.752066115702</v>
       </c>
       <c r="O4" t="n">
-        <v>1.427915518824193</v>
+        <v>5.803489439853365</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V4" t="inlineStr"/>
     </row>
@@ -761,19 +761,19 @@
         <v>96</v>
       </c>
       <c r="B5" t="n">
-        <v>1441617</v>
+        <v>51584037</v>
       </c>
       <c r="C5" t="n">
-        <v>1704866400</v>
+        <v>1711000800</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SA24091704866400</t>
+          <t>SA24091711000800</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024-01-10 14:00:00</t>
+          <t>2024-03-21 14:00:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -782,31 +782,31 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1831</v>
+        <v>1864</v>
       </c>
       <c r="H5" t="n">
-        <v>1839</v>
+        <v>1867</v>
       </c>
       <c r="I5" t="n">
-        <v>1829</v>
+        <v>1856</v>
       </c>
       <c r="J5" t="n">
-        <v>1837</v>
+        <v>1859</v>
       </c>
       <c r="K5" t="n">
-        <v>2045</v>
+        <v>26003</v>
       </c>
       <c r="L5" t="n">
-        <v>127364</v>
+        <v>461814</v>
       </c>
       <c r="M5" t="n">
-        <v>1836.037037037037</v>
+        <v>1850.037037037037</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.986476333583</v>
+        <v>1843.251690458302</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9494392965461884</v>
+        <v>6.785346578735698</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V5" t="inlineStr"/>
     </row>
@@ -833,19 +833,19 @@
         <v>95</v>
       </c>
       <c r="B6" t="n">
-        <v>1472277</v>
+        <v>51613675</v>
       </c>
       <c r="C6" t="n">
-        <v>1704867300</v>
+        <v>1711001700</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SA24091704867300</t>
+          <t>SA24091711001700</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024-01-10 14:15:00</t>
+          <t>2024-03-21 14:15:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -854,31 +854,31 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1836</v>
+        <v>1859</v>
       </c>
       <c r="H6" t="n">
-        <v>1838</v>
+        <v>1871</v>
       </c>
       <c r="I6" t="n">
-        <v>1827</v>
+        <v>1855</v>
       </c>
       <c r="J6" t="n">
-        <v>1831</v>
+        <v>1870</v>
       </c>
       <c r="K6" t="n">
-        <v>3122</v>
+        <v>24253</v>
       </c>
       <c r="L6" t="n">
-        <v>127402</v>
+        <v>464279</v>
       </c>
       <c r="M6" t="n">
-        <v>1834.358024691358</v>
+        <v>1856.691358024692</v>
       </c>
       <c r="N6" t="n">
-        <v>1835.898026091114</v>
+        <v>1848.115019465883</v>
       </c>
       <c r="O6" t="n">
-        <v>1.540001399755511</v>
+        <v>8.576338558808629</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V6" t="inlineStr"/>
     </row>
@@ -905,19 +905,19 @@
         <v>94</v>
       </c>
       <c r="B7" t="n">
-        <v>1498849</v>
+        <v>51643313</v>
       </c>
       <c r="C7" t="n">
-        <v>1704868200</v>
+        <v>1711002600</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SA24091704868200</t>
+          <t>SA24091711002600</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024-01-10 14:30:00</t>
+          <t>2024-03-21 14:30:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -926,31 +926,31 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1831</v>
+        <v>1870</v>
       </c>
       <c r="H7" t="n">
-        <v>1838</v>
+        <v>1883</v>
       </c>
       <c r="I7" t="n">
-        <v>1828</v>
+        <v>1866</v>
       </c>
       <c r="J7" t="n">
-        <v>1829</v>
+        <v>1876</v>
       </c>
       <c r="K7" t="n">
-        <v>4036</v>
+        <v>46285</v>
       </c>
       <c r="L7" t="n">
-        <v>127827</v>
+        <v>462929</v>
       </c>
       <c r="M7" t="n">
-        <v>1832.572016460906</v>
+        <v>1863.127572016461</v>
       </c>
       <c r="N7" t="n">
-        <v>1834.643839529093</v>
+        <v>1853.185015926631</v>
       </c>
       <c r="O7" t="n">
-        <v>2.071823068187314</v>
+        <v>9.94255608982985</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V7" t="inlineStr"/>
     </row>
@@ -977,19 +977,19 @@
         <v>93</v>
       </c>
       <c r="B8" t="n">
-        <v>1529509</v>
+        <v>51673973</v>
       </c>
       <c r="C8" t="n">
-        <v>1704869100</v>
+        <v>1711003500</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SA24091704869100</t>
+          <t>SA24091711003500</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024-01-10 14:45:00</t>
+          <t>2024-03-21 14:45:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1829</v>
+        <v>1876</v>
       </c>
       <c r="H8" t="n">
-        <v>1832</v>
+        <v>1878</v>
       </c>
       <c r="I8" t="n">
-        <v>1817</v>
+        <v>1862</v>
       </c>
       <c r="J8" t="n">
-        <v>1819</v>
+        <v>1865</v>
       </c>
       <c r="K8" t="n">
-        <v>6423</v>
+        <v>23572</v>
       </c>
       <c r="L8" t="n">
-        <v>128013</v>
+        <v>462704</v>
       </c>
       <c r="M8" t="n">
-        <v>1828.048010973937</v>
+        <v>1863.751714677641</v>
       </c>
       <c r="N8" t="n">
-        <v>1831.799505069258</v>
+        <v>1855.333194849062</v>
       </c>
       <c r="O8" t="n">
-        <v>3.751494095320595</v>
+        <v>8.418519828579065</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V8" t="inlineStr"/>
     </row>
@@ -1049,19 +1049,19 @@
         <v>92</v>
       </c>
       <c r="B9" t="n">
-        <v>1551993</v>
+        <v>51704633</v>
       </c>
       <c r="C9" t="n">
-        <v>1704870000</v>
+        <v>1711004400</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SA24091704870000</t>
+          <t>SA24091711004400</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024-01-10 15:00:00</t>
+          <t>2024-03-21 15:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1070,31 +1070,31 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1818</v>
+        <v>1864</v>
       </c>
       <c r="H9" t="n">
-        <v>1823</v>
+        <v>1879</v>
       </c>
       <c r="I9" t="n">
-        <v>1811</v>
+        <v>1861</v>
       </c>
       <c r="J9" t="n">
-        <v>1812</v>
+        <v>1871</v>
       </c>
       <c r="K9" t="n">
-        <v>8872</v>
+        <v>29289</v>
       </c>
       <c r="L9" t="n">
-        <v>128853</v>
+        <v>462782</v>
       </c>
       <c r="M9" t="n">
-        <v>1822.698673982625</v>
+        <v>1866.167809785094</v>
       </c>
       <c r="N9" t="n">
-        <v>1828.199595056665</v>
+        <v>1858.181704876505</v>
       </c>
       <c r="O9" t="n">
-        <v>5.500921074040434</v>
+        <v>7.986104908588914</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V9" t="inlineStr"/>
     </row>
@@ -1121,19 +1121,19 @@
         <v>91</v>
       </c>
       <c r="B10" t="n">
-        <v>2191765</v>
+        <v>51777195</v>
       </c>
       <c r="C10" t="n">
-        <v>1704892500</v>
+        <v>1711026900</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SA24091704892500</t>
+          <t>SA24091711026900</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024-01-10 21:15:00</t>
+          <t>2024-03-21 21:15:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1810</v>
+        <v>1864</v>
       </c>
       <c r="H10" t="n">
-        <v>1818</v>
+        <v>1870</v>
       </c>
       <c r="I10" t="n">
-        <v>1799</v>
+        <v>1855</v>
       </c>
       <c r="J10" t="n">
-        <v>1807</v>
+        <v>1860</v>
       </c>
       <c r="K10" t="n">
-        <v>13764</v>
+        <v>45997</v>
       </c>
       <c r="L10" t="n">
-        <v>131917</v>
+        <v>463688</v>
       </c>
       <c r="M10" t="n">
-        <v>1817.465782655083</v>
+        <v>1864.111873190063</v>
       </c>
       <c r="N10" t="n">
-        <v>1824.345123228181</v>
+        <v>1858.512303989868</v>
       </c>
       <c r="O10" t="n">
-        <v>6.879340573097352</v>
+        <v>5.599569200194992</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V10" t="inlineStr"/>
     </row>
@@ -1193,19 +1193,19 @@
         <v>90</v>
       </c>
       <c r="B11" t="n">
-        <v>2193809</v>
+        <v>51807855</v>
       </c>
       <c r="C11" t="n">
-        <v>1704893400</v>
+        <v>1711027800</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SA24091704893400</t>
+          <t>SA24091711027800</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024-01-10 21:30:00</t>
+          <t>2024-03-21 21:30:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1214,31 +1214,31 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1806</v>
+        <v>1860</v>
       </c>
       <c r="H11" t="n">
-        <v>1808</v>
+        <v>1860</v>
       </c>
       <c r="I11" t="n">
-        <v>1802</v>
+        <v>1852</v>
       </c>
       <c r="J11" t="n">
-        <v>1806</v>
+        <v>1857</v>
       </c>
       <c r="K11" t="n">
-        <v>3832</v>
+        <v>29209</v>
       </c>
       <c r="L11" t="n">
-        <v>131943</v>
+        <v>471461</v>
       </c>
       <c r="M11" t="n">
-        <v>1813.643855103389</v>
+        <v>1861.741248793375</v>
       </c>
       <c r="N11" t="n">
-        <v>1821.009646277602</v>
+        <v>1858.237339628074</v>
       </c>
       <c r="O11" t="n">
-        <v>7.3657911742132</v>
+        <v>3.50390916530182</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V11" t="inlineStr"/>
     </row>
@@ -1265,19 +1265,19 @@
         <v>89</v>
       </c>
       <c r="B12" t="n">
-        <v>2222425</v>
+        <v>51839537</v>
       </c>
       <c r="C12" t="n">
-        <v>1704894300</v>
+        <v>1711028700</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SA24091704894300</t>
+          <t>SA24091711028700</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024-01-10 21:45:00</t>
+          <t>2024-03-21 21:45:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1286,31 +1286,31 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1806</v>
+        <v>1857</v>
       </c>
       <c r="H12" t="n">
-        <v>1820</v>
+        <v>1859</v>
       </c>
       <c r="I12" t="n">
-        <v>1805</v>
+        <v>1848</v>
       </c>
       <c r="J12" t="n">
-        <v>1817</v>
+        <v>1854</v>
       </c>
       <c r="K12" t="n">
-        <v>7207</v>
+        <v>21010</v>
       </c>
       <c r="L12" t="n">
-        <v>132200</v>
+        <v>470445</v>
       </c>
       <c r="M12" t="n">
-        <v>1814.762570068926</v>
+        <v>1859.160832528917</v>
       </c>
       <c r="N12" t="n">
-        <v>1820.280619681675</v>
+        <v>1857.466914241151</v>
       </c>
       <c r="O12" t="n">
-        <v>5.5180496127482</v>
+        <v>1.693918287765882</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V12" t="inlineStr"/>
     </row>
@@ -1337,19 +1337,19 @@
         <v>88</v>
       </c>
       <c r="B13" t="n">
-        <v>2251041</v>
+        <v>51869175</v>
       </c>
       <c r="C13" t="n">
-        <v>1704895200</v>
+        <v>1711029600</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SA24091704895200</t>
+          <t>SA24091711029600</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024-01-10 22:00:00</t>
+          <t>2024-03-21 22:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1358,31 +1358,31 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1816</v>
+        <v>1853</v>
       </c>
       <c r="H13" t="n">
-        <v>1821</v>
+        <v>1863</v>
       </c>
       <c r="I13" t="n">
-        <v>1814</v>
+        <v>1850</v>
       </c>
       <c r="J13" t="n">
-        <v>1818</v>
+        <v>1861</v>
       </c>
       <c r="K13" t="n">
-        <v>3371</v>
+        <v>18374</v>
       </c>
       <c r="L13" t="n">
-        <v>131813</v>
+        <v>470277</v>
       </c>
       <c r="M13" t="n">
-        <v>1815.841713379284</v>
+        <v>1859.773888352611</v>
       </c>
       <c r="N13" t="n">
-        <v>1819.865961557733</v>
+        <v>1858.109293470033</v>
       </c>
       <c r="O13" t="n">
-        <v>4.02424817844917</v>
+        <v>1.66459488257874</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="V13" t="inlineStr"/>
     </row>
@@ -1409,19 +1409,19 @@
         <v>87</v>
       </c>
       <c r="B14" t="n">
-        <v>2281701</v>
+        <v>51896769</v>
       </c>
       <c r="C14" t="n">
-        <v>1704896100</v>
+        <v>1711030500</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SA24091704896100</t>
+          <t>SA24091711030500</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024-01-10 22:15:00</t>
+          <t>2024-03-21 22:15:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1430,31 +1430,31 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1818</v>
+        <v>1862</v>
       </c>
       <c r="H14" t="n">
-        <v>1820</v>
+        <v>1863</v>
       </c>
       <c r="I14" t="n">
-        <v>1814</v>
+        <v>1855</v>
       </c>
       <c r="J14" t="n">
-        <v>1819</v>
+        <v>1859</v>
       </c>
       <c r="K14" t="n">
-        <v>2974</v>
+        <v>11441</v>
       </c>
       <c r="L14" t="n">
-        <v>131915</v>
+        <v>468807</v>
       </c>
       <c r="M14" t="n">
-        <v>1816.89447558619</v>
+        <v>1859.515925568408</v>
       </c>
       <c r="N14" t="n">
-        <v>1819.708514001782</v>
+        <v>1858.271240111845</v>
       </c>
       <c r="O14" t="n">
-        <v>2.814038415592222</v>
+        <v>1.244685456563047</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="V14" t="inlineStr"/>
     </row>
@@ -1481,19 +1481,19 @@
         <v>86</v>
       </c>
       <c r="B15" t="n">
-        <v>2310317</v>
+        <v>51926407</v>
       </c>
       <c r="C15" t="n">
-        <v>1704897000</v>
+        <v>1711031400</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SA24091704897000</t>
+          <t>SA24091711031400</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024-01-10 22:30:00</t>
+          <t>2024-03-21 22:30:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1502,31 +1502,31 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1819</v>
+        <v>1859</v>
       </c>
       <c r="H15" t="n">
-        <v>1820</v>
+        <v>1861</v>
       </c>
       <c r="I15" t="n">
-        <v>1815</v>
+        <v>1852</v>
       </c>
       <c r="J15" t="n">
-        <v>1818</v>
+        <v>1854</v>
       </c>
       <c r="K15" t="n">
-        <v>1193</v>
+        <v>8543</v>
       </c>
       <c r="L15" t="n">
-        <v>132606</v>
+        <v>469795</v>
       </c>
       <c r="M15" t="n">
-        <v>1817.262983724127</v>
+        <v>1857.677283712272</v>
       </c>
       <c r="N15" t="n">
-        <v>1819.397875092367</v>
+        <v>1857.4946510006</v>
       </c>
       <c r="O15" t="n">
-        <v>2.134891368240233</v>
+        <v>0.1826327116718858</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="V15" t="inlineStr"/>
     </row>
@@ -1553,19 +1553,19 @@
         <v>85</v>
       </c>
       <c r="B16" t="n">
-        <v>2332801</v>
+        <v>51957067</v>
       </c>
       <c r="C16" t="n">
-        <v>1704897900</v>
+        <v>1711032300</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SA24091704897900</t>
+          <t>SA24091711032300</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024-01-10 22:45:00</t>
+          <t>2024-03-21 22:45:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1574,31 +1574,31 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1818</v>
+        <v>1855</v>
       </c>
       <c r="H16" t="n">
-        <v>1820</v>
+        <v>1863</v>
       </c>
       <c r="I16" t="n">
-        <v>1815</v>
+        <v>1854</v>
       </c>
       <c r="J16" t="n">
-        <v>1817</v>
+        <v>1862</v>
       </c>
       <c r="K16" t="n">
-        <v>1647</v>
+        <v>11627</v>
       </c>
       <c r="L16" t="n">
-        <v>132692</v>
+        <v>469049</v>
       </c>
       <c r="M16" t="n">
-        <v>1817.175322482751</v>
+        <v>1859.118189141515</v>
       </c>
       <c r="N16" t="n">
-        <v>1818.961897802846</v>
+        <v>1858.313805364127</v>
       </c>
       <c r="O16" t="n">
-        <v>1.786575320094471</v>
+        <v>0.8043837773875566</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="V16" t="inlineStr"/>
     </row>
@@ -1625,19 +1625,19 @@
         <v>84</v>
       </c>
       <c r="B17" t="n">
-        <v>2359373</v>
+        <v>51988749</v>
       </c>
       <c r="C17" t="n">
-        <v>1704898800</v>
+        <v>1711033200</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SA24091704898800</t>
+          <t>SA24091711033200</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2024-01-10 23:00:00</t>
+          <t>2024-03-21 23:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1646,31 +1646,31 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1817</v>
+        <v>1862</v>
       </c>
       <c r="H17" t="n">
-        <v>1820</v>
+        <v>1865</v>
       </c>
       <c r="I17" t="n">
-        <v>1814</v>
+        <v>1852</v>
       </c>
       <c r="J17" t="n">
-        <v>1819</v>
+        <v>1852</v>
       </c>
       <c r="K17" t="n">
-        <v>1782</v>
+        <v>19375</v>
       </c>
       <c r="L17" t="n">
-        <v>132654</v>
+        <v>467723</v>
       </c>
       <c r="M17" t="n">
-        <v>1817.783548321834</v>
+        <v>1856.745459427677</v>
       </c>
       <c r="N17" t="n">
-        <v>1818.968825475055</v>
+        <v>1857.165840752468</v>
       </c>
       <c r="O17" t="n">
-        <v>1.18527715322125</v>
+        <v>0.4203813247911512</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1697,19 +1697,19 @@
         <v>83</v>
       </c>
       <c r="B18" t="n">
-        <v>2439089</v>
+        <v>52022475</v>
       </c>
       <c r="C18" t="n">
-        <v>1704935700</v>
+        <v>1711070100</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SA24091704935700</t>
+          <t>SA24091711070100</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2024-01-11 09:15:00</t>
+          <t>2024-03-22 09:15:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1718,40 +1718,40 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1818</v>
+        <v>1853</v>
       </c>
       <c r="H18" t="n">
-        <v>1824</v>
+        <v>1858</v>
       </c>
       <c r="I18" t="n">
-        <v>1815</v>
+        <v>1833</v>
       </c>
       <c r="J18" t="n">
-        <v>1817</v>
+        <v>1835</v>
       </c>
       <c r="K18" t="n">
-        <v>4105</v>
+        <v>49366</v>
       </c>
       <c r="L18" t="n">
-        <v>132088</v>
+        <v>464695</v>
       </c>
       <c r="M18" t="n">
-        <v>1817.522365547889</v>
+        <v>1849.496972951785</v>
       </c>
       <c r="N18" t="n">
-        <v>1818.610857206863</v>
+        <v>1853.135687888383</v>
       </c>
       <c r="O18" t="n">
-        <v>1.088491658973908</v>
+        <v>3.638714936597808</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1870</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1835</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1760,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="V18" t="inlineStr"/>
     </row>
@@ -1769,19 +1769,19 @@
         <v>82</v>
       </c>
       <c r="B19" t="n">
-        <v>2469749</v>
+        <v>52052113</v>
       </c>
       <c r="C19" t="n">
-        <v>1704936600</v>
+        <v>1711071000</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SA24091704936600</t>
+          <t>SA24091711071000</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2024-01-11 09:30:00</t>
+          <t>2024-03-22 09:30:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1790,34 +1790,34 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1817</v>
+        <v>1833</v>
       </c>
       <c r="H19" t="n">
-        <v>1820</v>
+        <v>1841</v>
       </c>
       <c r="I19" t="n">
-        <v>1816</v>
+        <v>1833</v>
       </c>
       <c r="J19" t="n">
-        <v>1818</v>
+        <v>1840</v>
       </c>
       <c r="K19" t="n">
-        <v>1124</v>
+        <v>20494</v>
       </c>
       <c r="L19" t="n">
-        <v>132276</v>
+        <v>463070</v>
       </c>
       <c r="M19" t="n">
-        <v>1817.681577031927</v>
+        <v>1846.33131530119</v>
       </c>
       <c r="N19" t="n">
-        <v>1818.499792260161</v>
+        <v>1850.747380999586</v>
       </c>
       <c r="O19" t="n">
-        <v>0.818215228234294</v>
+        <v>4.416065698395641</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="V19" t="inlineStr"/>
     </row>
@@ -1841,19 +1841,19 @@
         <v>81</v>
       </c>
       <c r="B20" t="n">
-        <v>2500409</v>
+        <v>52082773</v>
       </c>
       <c r="C20" t="n">
-        <v>1704937500</v>
+        <v>1711071900</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SA24091704937500</t>
+          <t>SA24091711071900</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2024-01-11 09:45:00</t>
+          <t>2024-03-22 09:45:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1862,34 +1862,34 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1818</v>
+        <v>1839</v>
       </c>
       <c r="H20" t="n">
-        <v>1828</v>
+        <v>1845</v>
       </c>
       <c r="I20" t="n">
-        <v>1818</v>
+        <v>1836</v>
       </c>
       <c r="J20" t="n">
-        <v>1821</v>
+        <v>1841</v>
       </c>
       <c r="K20" t="n">
-        <v>4334</v>
+        <v>12452</v>
       </c>
       <c r="L20" t="n">
-        <v>132884</v>
+        <v>463822</v>
       </c>
       <c r="M20" t="n">
-        <v>1818.787718021284</v>
+        <v>1844.554210200793</v>
       </c>
       <c r="N20" t="n">
-        <v>1818.954375485586</v>
+        <v>1848.975129908752</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1666574643013519</v>
+        <v>4.420919707958319</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="V20" t="inlineStr"/>
     </row>
@@ -1913,19 +1913,19 @@
         <v>80</v>
       </c>
       <c r="B21" t="n">
-        <v>2529025</v>
+        <v>52113433</v>
       </c>
       <c r="C21" t="n">
-        <v>1704938400</v>
+        <v>1711072800</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SA24091704938400</t>
+          <t>SA24091711072800</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2024-01-11 10:00:00</t>
+          <t>2024-03-22 10:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1934,40 +1934,40 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1821</v>
+        <v>1841</v>
       </c>
       <c r="H21" t="n">
-        <v>1824</v>
+        <v>1842</v>
       </c>
       <c r="I21" t="n">
-        <v>1809</v>
+        <v>1835</v>
       </c>
       <c r="J21" t="n">
-        <v>1811</v>
+        <v>1836</v>
       </c>
       <c r="K21" t="n">
-        <v>4727</v>
+        <v>13006</v>
       </c>
       <c r="L21" t="n">
-        <v>132675</v>
+        <v>463774</v>
       </c>
       <c r="M21" t="n">
-        <v>1816.19181201419</v>
+        <v>1841.702806800529</v>
       </c>
       <c r="N21" t="n">
-        <v>1817.508125397297</v>
+        <v>1846.616015379888</v>
       </c>
       <c r="O21" t="n">
-        <v>1.316313383107399</v>
+        <v>4.913208579358525</v>
       </c>
       <c r="P21" t="n">
         <v>-1</v>
       </c>
       <c r="Q21" t="n">
-        <v>1846</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1811</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -1985,19 +1985,19 @@
         <v>79</v>
       </c>
       <c r="B22" t="n">
-        <v>2559685</v>
+        <v>52144093</v>
       </c>
       <c r="C22" t="n">
-        <v>1704939300</v>
+        <v>1711073700</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SA24091704939300</t>
+          <t>SA24091711073700</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2024-01-11 10:15:00</t>
+          <t>2024-03-22 10:15:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2006,31 +2006,31 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1811</v>
+        <v>1838</v>
       </c>
       <c r="H22" t="n">
-        <v>1814</v>
+        <v>1845</v>
       </c>
       <c r="I22" t="n">
-        <v>1807</v>
+        <v>1837</v>
       </c>
       <c r="J22" t="n">
-        <v>1814</v>
+        <v>1838</v>
       </c>
       <c r="K22" t="n">
-        <v>4222</v>
+        <v>8733</v>
       </c>
       <c r="L22" t="n">
-        <v>133903</v>
+        <v>463825</v>
       </c>
       <c r="M22" t="n">
-        <v>1815.46120800946</v>
+        <v>1840.46853786702</v>
       </c>
       <c r="N22" t="n">
-        <v>1816.87028441597</v>
+        <v>1845.049467128999</v>
       </c>
       <c r="O22" t="n">
-        <v>1.409076406510167</v>
+        <v>4.580929261979236</v>
       </c>
       <c r="P22" t="n">
         <v>-1</v>
@@ -2057,19 +2057,19 @@
         <v>78</v>
       </c>
       <c r="B23" t="n">
-        <v>2618961</v>
+        <v>52202347</v>
       </c>
       <c r="C23" t="n">
-        <v>1704941100</v>
+        <v>1711075500</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SA24091704941100</t>
+          <t>SA24091711075500</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2024-01-11 10:45:00</t>
+          <t>2024-03-22 10:45:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2078,31 +2078,31 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1813</v>
+        <v>1838</v>
       </c>
       <c r="H23" t="n">
-        <v>1815</v>
+        <v>1847</v>
       </c>
       <c r="I23" t="n">
-        <v>1809</v>
+        <v>1835</v>
       </c>
       <c r="J23" t="n">
-        <v>1809</v>
+        <v>1847</v>
       </c>
       <c r="K23" t="n">
-        <v>1492</v>
+        <v>12267</v>
       </c>
       <c r="L23" t="n">
-        <v>134571</v>
+        <v>464424</v>
       </c>
       <c r="M23" t="n">
-        <v>1813.307472006307</v>
+        <v>1842.645691911347</v>
       </c>
       <c r="N23" t="n">
-        <v>1815.439323613067</v>
+        <v>1845.404109469181</v>
       </c>
       <c r="O23" t="n">
-        <v>2.13185160675971</v>
+        <v>2.758417557834264</v>
       </c>
       <c r="P23" t="n">
         <v>-1</v>
@@ -2129,19 +2129,19 @@
         <v>77</v>
       </c>
       <c r="B24" t="n">
-        <v>2649621</v>
+        <v>52234029</v>
       </c>
       <c r="C24" t="n">
-        <v>1704942000</v>
+        <v>1711076400</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SA24091704942000</t>
+          <t>SA24091711076400</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2024-01-11 11:00:00</t>
+          <t>2024-03-22 11:00:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2150,34 +2150,34 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1809</v>
+        <v>1847</v>
       </c>
       <c r="H24" t="n">
-        <v>1815</v>
+        <v>1862</v>
       </c>
       <c r="I24" t="n">
-        <v>1809</v>
+        <v>1847</v>
       </c>
       <c r="J24" t="n">
-        <v>1815</v>
+        <v>1857</v>
       </c>
       <c r="K24" t="n">
-        <v>1376</v>
+        <v>45961</v>
       </c>
       <c r="L24" t="n">
-        <v>134830</v>
+        <v>462209</v>
       </c>
       <c r="M24" t="n">
-        <v>1813.871648004205</v>
+        <v>1847.430461274231</v>
       </c>
       <c r="N24" t="n">
-        <v>1815.359446592509</v>
+        <v>1847.512453202057</v>
       </c>
       <c r="O24" t="n">
-        <v>1.487798588304258</v>
+        <v>0.08199192782558384</v>
       </c>
       <c r="P24" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -2186,34 +2186,36 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>-1808</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="U24" t="n">
-        <v>-1</v>
-      </c>
-      <c r="V24" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B25" t="n">
-        <v>2678237</v>
+        <v>52265711</v>
       </c>
       <c r="C25" t="n">
-        <v>1704942900</v>
+        <v>1711077300</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SA24091704942900</t>
+          <t>SA24091711077300</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2024-01-11 11:15:00</t>
+          <t>2024-03-22 11:15:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2222,40 +2224,40 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1815</v>
+        <v>1856</v>
       </c>
       <c r="H25" t="n">
-        <v>1817</v>
+        <v>1863</v>
       </c>
       <c r="I25" t="n">
-        <v>1811</v>
+        <v>1856</v>
       </c>
       <c r="J25" t="n">
-        <v>1816</v>
+        <v>1863</v>
       </c>
       <c r="K25" t="n">
-        <v>2480</v>
+        <v>20845</v>
       </c>
       <c r="L25" t="n">
-        <v>135014</v>
+        <v>460371</v>
       </c>
       <c r="M25" t="n">
-        <v>1814.58109866947</v>
+        <v>1852.620307516154</v>
       </c>
       <c r="N25" t="n">
-        <v>1815.475910848417</v>
+        <v>1850.328370801683</v>
       </c>
       <c r="O25" t="n">
-        <v>0.8948121789464949</v>
+        <v>2.291936714471603</v>
       </c>
       <c r="P25" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1828</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1863</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2264,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V25" t="inlineStr"/>
     </row>
@@ -2273,19 +2275,19 @@
         <v>75</v>
       </c>
       <c r="B26" t="n">
-        <v>2710941</v>
+        <v>52294327</v>
       </c>
       <c r="C26" t="n">
-        <v>1704943800</v>
+        <v>1711078200</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SA24091704943800</t>
+          <t>SA24091711078200</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2024-01-11 11:30:00</t>
+          <t>2024-03-22 11:30:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2294,34 +2296,34 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1816</v>
+        <v>1862</v>
       </c>
       <c r="H26" t="n">
-        <v>1823</v>
+        <v>1865</v>
       </c>
       <c r="I26" t="n">
-        <v>1816</v>
+        <v>1836</v>
       </c>
       <c r="J26" t="n">
-        <v>1817</v>
+        <v>1841</v>
       </c>
       <c r="K26" t="n">
-        <v>2616</v>
+        <v>37689</v>
       </c>
       <c r="L26" t="n">
-        <v>134899</v>
+        <v>461267</v>
       </c>
       <c r="M26" t="n">
-        <v>1815.38739911298</v>
+        <v>1848.746871677437</v>
       </c>
       <c r="N26" t="n">
-        <v>1815.753017966886</v>
+        <v>1848.632303383195</v>
       </c>
       <c r="O26" t="n">
-        <v>0.3656188539057439</v>
+        <v>0.1145682942417352</v>
       </c>
       <c r="P26" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -2330,34 +2332,36 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-1808</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="U26" t="n">
-        <v>-1</v>
-      </c>
-      <c r="V26" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B27" t="n">
-        <v>2782481</v>
+        <v>52324987</v>
       </c>
       <c r="C27" t="n">
-        <v>1704951900</v>
+        <v>1711086300</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SA24091704951900</t>
+          <t>SA24091711086300</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2024-01-11 13:45:00</t>
+          <t>2024-03-22 13:45:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2366,40 +2370,40 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1821</v>
+        <v>1842</v>
       </c>
       <c r="H27" t="n">
+        <v>1843</v>
+      </c>
+      <c r="I27" t="n">
         <v>1828</v>
       </c>
-      <c r="I27" t="n">
-        <v>1819</v>
-      </c>
       <c r="J27" t="n">
-        <v>1825</v>
+        <v>1833</v>
       </c>
       <c r="K27" t="n">
-        <v>5300</v>
+        <v>41871</v>
       </c>
       <c r="L27" t="n">
-        <v>135126</v>
+        <v>461526</v>
       </c>
       <c r="M27" t="n">
-        <v>1818.591599408654</v>
+        <v>1843.497914451624</v>
       </c>
       <c r="N27" t="n">
-        <v>1817.434287427452</v>
+        <v>1845.790066404432</v>
       </c>
       <c r="O27" t="n">
-        <v>1.157311981201474</v>
+        <v>2.292151952807444</v>
       </c>
       <c r="P27" t="n">
         <v>-1</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1833</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2408,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V27" t="inlineStr"/>
     </row>
@@ -2417,19 +2421,19 @@
         <v>73</v>
       </c>
       <c r="B28" t="n">
-        <v>2809053</v>
+        <v>52355647</v>
       </c>
       <c r="C28" t="n">
-        <v>1704952800</v>
+        <v>1711087200</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SA24091704952800</t>
+          <t>SA24091711087200</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2024-01-11 14:00:00</t>
+          <t>2024-03-22 14:00:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2438,31 +2442,31 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1825</v>
+        <v>1834</v>
       </c>
       <c r="H28" t="n">
-        <v>1828</v>
+        <v>1841</v>
       </c>
       <c r="I28" t="n">
-        <v>1820</v>
+        <v>1832</v>
       </c>
       <c r="J28" t="n">
-        <v>1824</v>
+        <v>1839</v>
       </c>
       <c r="K28" t="n">
-        <v>1831</v>
+        <v>16092</v>
       </c>
       <c r="L28" t="n">
-        <v>135523</v>
+        <v>468320</v>
       </c>
       <c r="M28" t="n">
-        <v>1820.394399605769</v>
+        <v>1841.998609634416</v>
       </c>
       <c r="N28" t="n">
-        <v>1818.628053349733</v>
+        <v>1844.555508876353</v>
       </c>
       <c r="O28" t="n">
-        <v>1.766346256035831</v>
+        <v>2.556899241936662</v>
       </c>
       <c r="P28" t="n">
         <v>-1</v>
@@ -2480,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V28" t="inlineStr"/>
     </row>
@@ -2489,19 +2493,19 @@
         <v>72</v>
       </c>
       <c r="B29" t="n">
-        <v>2835625</v>
+        <v>52384263</v>
       </c>
       <c r="C29" t="n">
-        <v>1704953700</v>
+        <v>1711088100</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SA24091704953700</t>
+          <t>SA24091711088100</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2024-01-11 14:15:00</t>
+          <t>2024-03-22 14:15:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2510,31 +2514,31 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1824</v>
+        <v>1839</v>
       </c>
       <c r="H29" t="n">
-        <v>1824</v>
+        <v>1848</v>
       </c>
       <c r="I29" t="n">
-        <v>1817</v>
+        <v>1837</v>
       </c>
       <c r="J29" t="n">
-        <v>1822</v>
+        <v>1847</v>
       </c>
       <c r="K29" t="n">
-        <v>2368</v>
+        <v>12332</v>
       </c>
       <c r="L29" t="n">
-        <v>135759</v>
+        <v>468653</v>
       </c>
       <c r="M29" t="n">
-        <v>1820.92959973718</v>
+        <v>1843.665739756278</v>
       </c>
       <c r="N29" t="n">
-        <v>1819.241134558873</v>
+        <v>1844.999961807925</v>
       </c>
       <c r="O29" t="n">
-        <v>1.688465178307069</v>
+        <v>1.33422205164743</v>
       </c>
       <c r="P29" t="n">
         <v>-1</v>
@@ -2552,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V29" t="inlineStr"/>
     </row>
@@ -2561,19 +2565,19 @@
         <v>71</v>
       </c>
       <c r="B30" t="n">
-        <v>2864241</v>
+        <v>52414923</v>
       </c>
       <c r="C30" t="n">
-        <v>1704954600</v>
+        <v>1711089000</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SA24091704954600</t>
+          <t>SA24091711089000</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2024-01-11 14:30:00</t>
+          <t>2024-03-22 14:30:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2582,31 +2586,31 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1821</v>
+        <v>1847</v>
       </c>
       <c r="H30" t="n">
-        <v>1825</v>
+        <v>1855</v>
       </c>
       <c r="I30" t="n">
-        <v>1818</v>
+        <v>1837</v>
       </c>
       <c r="J30" t="n">
-        <v>1823</v>
+        <v>1840</v>
       </c>
       <c r="K30" t="n">
-        <v>1299</v>
+        <v>30765</v>
       </c>
       <c r="L30" t="n">
-        <v>136309</v>
+        <v>465526</v>
       </c>
       <c r="M30" t="n">
-        <v>1821.61973315812</v>
+        <v>1842.443826504185</v>
       </c>
       <c r="N30" t="n">
-        <v>1819.924564639078</v>
+        <v>1844.090877842848</v>
       </c>
       <c r="O30" t="n">
-        <v>1.695168519042227</v>
+        <v>1.64705133866255</v>
       </c>
       <c r="P30" t="n">
         <v>-1</v>
@@ -2624,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V30" t="inlineStr"/>
     </row>
@@ -2633,19 +2637,19 @@
         <v>70</v>
       </c>
       <c r="B31" t="n">
-        <v>2896945</v>
+        <v>52443539</v>
       </c>
       <c r="C31" t="n">
-        <v>1704955500</v>
+        <v>1711089900</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SA24091704955500</t>
+          <t>SA24091711089900</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2024-01-11 14:45:00</t>
+          <t>2024-03-22 14:45:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2654,31 +2658,31 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1823</v>
+        <v>1840</v>
       </c>
       <c r="H31" t="n">
-        <v>1833</v>
+        <v>1846</v>
       </c>
       <c r="I31" t="n">
-        <v>1820</v>
+        <v>1834</v>
       </c>
       <c r="J31" t="n">
-        <v>1833</v>
+        <v>1840</v>
       </c>
       <c r="K31" t="n">
-        <v>3906</v>
+        <v>16836</v>
       </c>
       <c r="L31" t="n">
-        <v>136365</v>
+        <v>463321</v>
       </c>
       <c r="M31" t="n">
-        <v>1825.413155438747</v>
+        <v>1841.629217669457</v>
       </c>
       <c r="N31" t="n">
-        <v>1822.301916522882</v>
+        <v>1843.347081871421</v>
       </c>
       <c r="O31" t="n">
-        <v>3.111238915864988</v>
+        <v>1.717864201963721</v>
       </c>
       <c r="P31" t="n">
         <v>-1</v>
@@ -2696,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V31" t="inlineStr"/>
     </row>
@@ -2705,19 +2709,19 @@
         <v>69</v>
       </c>
       <c r="B32" t="n">
-        <v>2925561</v>
+        <v>52475221</v>
       </c>
       <c r="C32" t="n">
-        <v>1704956400</v>
+        <v>1711090800</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SA24091704956400</t>
+          <t>SA24091711090800</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2024-01-11 15:00:00</t>
+          <t>2024-03-22 15:00:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2726,31 +2730,31 @@
         </is>
       </c>
       <c r="G32" t="n">
+        <v>1839</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1844</v>
+      </c>
+      <c r="I32" t="n">
         <v>1832</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1841</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1829</v>
       </c>
       <c r="J32" t="n">
         <v>1834</v>
       </c>
       <c r="K32" t="n">
-        <v>9731</v>
+        <v>24263</v>
       </c>
       <c r="L32" t="n">
-        <v>136212</v>
+        <v>464938</v>
       </c>
       <c r="M32" t="n">
-        <v>1828.275436959164</v>
+        <v>1839.086145112971</v>
       </c>
       <c r="N32" t="n">
-        <v>1824.428840791448</v>
+        <v>1841.647612440253</v>
       </c>
       <c r="O32" t="n">
-        <v>3.846596167715916</v>
+        <v>2.561467327281889</v>
       </c>
       <c r="P32" t="n">
         <v>-1</v>
@@ -2768,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V32" t="inlineStr"/>
     </row>
@@ -2777,19 +2781,19 @@
         <v>68</v>
       </c>
       <c r="B33" t="n">
-        <v>3683885</v>
+        <v>52532454</v>
       </c>
       <c r="C33" t="n">
-        <v>1704978900</v>
+        <v>1711113300</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>SA24091704978900</t>
+          <t>SA24091711113300</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2024-01-11 21:15:00</t>
+          <t>2024-03-22 21:15:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2798,31 +2802,31 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1835</v>
+        <v>1825</v>
       </c>
       <c r="H33" t="n">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="I33" t="n">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="J33" t="n">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="K33" t="n">
-        <v>7405</v>
+        <v>57637</v>
       </c>
       <c r="L33" t="n">
-        <v>135821</v>
+        <v>478472</v>
       </c>
       <c r="M33" t="n">
-        <v>1828.85029130611</v>
+        <v>1836.390763408648</v>
       </c>
       <c r="N33" t="n">
-        <v>1825.441778829367</v>
+        <v>1839.711682905662</v>
       </c>
       <c r="O33" t="n">
-        <v>3.408512476742999</v>
+        <v>3.320919497014074</v>
       </c>
       <c r="P33" t="n">
         <v>-1</v>
@@ -2840,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V33" t="inlineStr"/>
     </row>
@@ -2849,19 +2853,19 @@
         <v>67</v>
       </c>
       <c r="B34" t="n">
-        <v>3714545</v>
+        <v>52532455</v>
       </c>
       <c r="C34" t="n">
-        <v>1704979800</v>
+        <v>1711114200</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>SA24091704979800</t>
+          <t>SA24091711114200</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2024-01-11 21:30:00</t>
+          <t>2024-03-22 21:30:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2870,31 +2874,31 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1830</v>
+        <v>1832</v>
       </c>
       <c r="H34" t="n">
+        <v>1845</v>
+      </c>
+      <c r="I34" t="n">
         <v>1831</v>
       </c>
-      <c r="I34" t="n">
-        <v>1823</v>
-      </c>
       <c r="J34" t="n">
-        <v>1827</v>
+        <v>1841</v>
       </c>
       <c r="K34" t="n">
-        <v>3759</v>
+        <v>28716</v>
       </c>
       <c r="L34" t="n">
-        <v>137105</v>
+        <v>479378</v>
       </c>
       <c r="M34" t="n">
-        <v>1828.233527537407</v>
+        <v>1837.927175605765</v>
       </c>
       <c r="N34" t="n">
-        <v>1825.725091769482</v>
+        <v>1839.945922377359</v>
       </c>
       <c r="O34" t="n">
-        <v>2.508435767924766</v>
+        <v>2.018746771594351</v>
       </c>
       <c r="P34" t="n">
         <v>-1</v>
@@ -2912,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V34" t="inlineStr"/>
     </row>
@@ -2921,19 +2925,19 @@
         <v>66</v>
       </c>
       <c r="B35" t="n">
-        <v>3747249</v>
+        <v>52532456</v>
       </c>
       <c r="C35" t="n">
-        <v>1704980700</v>
+        <v>1711115100</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SA24091704980700</t>
+          <t>SA24091711115100</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2024-01-11 21:45:00</t>
+          <t>2024-03-22 21:45:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2942,31 +2946,31 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1827</v>
+        <v>1841</v>
       </c>
       <c r="H35" t="n">
-        <v>1829</v>
+        <v>1845</v>
       </c>
       <c r="I35" t="n">
-        <v>1823</v>
+        <v>1836</v>
       </c>
       <c r="J35" t="n">
-        <v>1826</v>
+        <v>1837</v>
       </c>
       <c r="K35" t="n">
-        <v>1873</v>
+        <v>14743</v>
       </c>
       <c r="L35" t="n">
-        <v>136977</v>
+        <v>481190</v>
       </c>
       <c r="M35" t="n">
-        <v>1827.489018358271</v>
+        <v>1837.61811707051</v>
       </c>
       <c r="N35" t="n">
-        <v>1825.775075084121</v>
+        <v>1839.41030012693</v>
       </c>
       <c r="O35" t="n">
-        <v>1.713943274149642</v>
+        <v>1.792183056420299</v>
       </c>
       <c r="P35" t="n">
         <v>-1</v>
@@ -2984,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V35" t="inlineStr"/>
     </row>
@@ -2993,19 +2997,19 @@
         <v>65</v>
       </c>
       <c r="B36" t="n">
-        <v>3775865</v>
+        <v>52532457</v>
       </c>
       <c r="C36" t="n">
-        <v>1704981600</v>
+        <v>1711116000</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SA24091704981600</t>
+          <t>SA24091711116000</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2024-01-11 22:00:00</t>
+          <t>2024-03-22 22:00:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3014,31 +3018,31 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1826</v>
+        <v>1838</v>
       </c>
       <c r="H36" t="n">
-        <v>1828</v>
+        <v>1841</v>
       </c>
       <c r="I36" t="n">
-        <v>1815</v>
+        <v>1831</v>
       </c>
       <c r="J36" t="n">
-        <v>1816</v>
+        <v>1837</v>
       </c>
       <c r="K36" t="n">
-        <v>4641</v>
+        <v>11898</v>
       </c>
       <c r="L36" t="n">
-        <v>137049</v>
+        <v>482638</v>
       </c>
       <c r="M36" t="n">
-        <v>1823.659345572181</v>
+        <v>1837.412078047007</v>
       </c>
       <c r="N36" t="n">
-        <v>1823.99778870519</v>
+        <v>1838.972063740216</v>
       </c>
       <c r="O36" t="n">
-        <v>0.3384431330093776</v>
+        <v>1.559985693208773</v>
       </c>
       <c r="P36" t="n">
         <v>-1</v>
@@ -3065,19 +3069,19 @@
         <v>64</v>
       </c>
       <c r="B37" t="n">
-        <v>3804481</v>
+        <v>52532458</v>
       </c>
       <c r="C37" t="n">
-        <v>1704982500</v>
+        <v>1711116900</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SA24091704982500</t>
+          <t>SA24091711116900</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2024-01-11 22:15:00</t>
+          <t>2024-03-22 22:15:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3086,31 +3090,31 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1817</v>
+        <v>1838</v>
       </c>
       <c r="H37" t="n">
-        <v>1822</v>
+        <v>1840</v>
       </c>
       <c r="I37" t="n">
-        <v>1814</v>
+        <v>1832</v>
       </c>
       <c r="J37" t="n">
-        <v>1822</v>
+        <v>1839</v>
       </c>
       <c r="K37" t="n">
-        <v>3183</v>
+        <v>13698</v>
       </c>
       <c r="L37" t="n">
-        <v>138031</v>
+        <v>482958</v>
       </c>
       <c r="M37" t="n">
-        <v>1823.106230381454</v>
+        <v>1837.941385364671</v>
       </c>
       <c r="N37" t="n">
-        <v>1823.634554395156</v>
+        <v>1838.977143060176</v>
       </c>
       <c r="O37" t="n">
-        <v>0.5283240137016492</v>
+        <v>1.035757695505026</v>
       </c>
       <c r="P37" t="n">
         <v>-1</v>
@@ -3137,19 +3141,19 @@
         <v>63</v>
       </c>
       <c r="B38" t="n">
-        <v>3835141</v>
+        <v>52537573</v>
       </c>
       <c r="C38" t="n">
-        <v>1704983400</v>
+        <v>1711117800</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SA24091704983400</t>
+          <t>SA24091711117800</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2024-01-11 22:30:00</t>
+          <t>2024-03-22 22:30:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3158,31 +3162,31 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1822</v>
+        <v>1838</v>
       </c>
       <c r="H38" t="n">
-        <v>1822</v>
+        <v>1841</v>
       </c>
       <c r="I38" t="n">
-        <v>1816</v>
+        <v>1833</v>
       </c>
       <c r="J38" t="n">
-        <v>1818</v>
+        <v>1835</v>
       </c>
       <c r="K38" t="n">
-        <v>2061</v>
+        <v>9506</v>
       </c>
       <c r="L38" t="n">
-        <v>138212</v>
+        <v>483028</v>
       </c>
       <c r="M38" t="n">
-        <v>1821.404153587636</v>
+        <v>1836.960923576448</v>
       </c>
       <c r="N38" t="n">
-        <v>1822.610089959673</v>
+        <v>1838.254026140144</v>
       </c>
       <c r="O38" t="n">
-        <v>1.205936372036604</v>
+        <v>1.293102563696266</v>
       </c>
       <c r="P38" t="n">
         <v>-1</v>
@@ -3209,19 +3213,19 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>3841272</v>
+        <v>52542683</v>
       </c>
       <c r="C39" t="n">
-        <v>1704984300</v>
+        <v>1711118700</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SA24091704984300</t>
+          <t>SA24091711118700</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2024-01-11 22:45:00</t>
+          <t>2024-03-22 22:45:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3230,31 +3234,31 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1817</v>
+        <v>1835</v>
       </c>
       <c r="H39" t="n">
-        <v>1821</v>
+        <v>1838</v>
       </c>
       <c r="I39" t="n">
-        <v>1810</v>
+        <v>1827</v>
       </c>
       <c r="J39" t="n">
-        <v>1815</v>
+        <v>1833</v>
       </c>
       <c r="K39" t="n">
-        <v>5593</v>
+        <v>22603</v>
       </c>
       <c r="L39" t="n">
-        <v>139089</v>
+        <v>483007</v>
       </c>
       <c r="M39" t="n">
-        <v>1819.269435725091</v>
+        <v>1835.640615717632</v>
       </c>
       <c r="N39" t="n">
-        <v>1821.226437239732</v>
+        <v>1837.298748660118</v>
       </c>
       <c r="O39" t="n">
-        <v>1.957001514641206</v>
+        <v>1.658132942485736</v>
       </c>
       <c r="P39" t="n">
         <v>-1</v>
@@ -3281,19 +3285,19 @@
         <v>61</v>
       </c>
       <c r="B40" t="n">
-        <v>3841273</v>
+        <v>52548816</v>
       </c>
       <c r="C40" t="n">
-        <v>1704985200</v>
+        <v>1711119600</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SA24091704985200</t>
+          <t>SA24091711119600</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2024-01-11 23:00:00</t>
+          <t>2024-03-22 23:00:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3302,31 +3306,31 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1815</v>
+        <v>1833</v>
       </c>
       <c r="H40" t="n">
-        <v>1816</v>
+        <v>1835</v>
       </c>
       <c r="I40" t="n">
-        <v>1805</v>
+        <v>1826</v>
       </c>
       <c r="J40" t="n">
-        <v>1814</v>
+        <v>1827</v>
       </c>
       <c r="K40" t="n">
-        <v>9584</v>
+        <v>20309</v>
       </c>
       <c r="L40" t="n">
-        <v>139210</v>
+        <v>485113</v>
       </c>
       <c r="M40" t="n">
-        <v>1817.512957150061</v>
+        <v>1832.760410478422</v>
       </c>
       <c r="N40" t="n">
-        <v>1819.912539559781</v>
+        <v>1835.426248903733</v>
       </c>
       <c r="O40" t="n">
-        <v>2.399582409720097</v>
+        <v>2.665838425310994</v>
       </c>
       <c r="P40" t="n">
         <v>-1</v>
@@ -3353,19 +3357,19 @@
         <v>60</v>
       </c>
       <c r="B41" t="n">
-        <v>3861713</v>
+        <v>52775701</v>
       </c>
       <c r="C41" t="n">
-        <v>1705022100</v>
+        <v>1711329300</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SA24091705022100</t>
+          <t>SA24091711329300</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2024-01-12 09:15:00</t>
+          <t>2024-03-25 09:15:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3374,31 +3378,31 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1813</v>
+        <v>1825</v>
       </c>
       <c r="H41" t="n">
-        <v>1834</v>
+        <v>1825</v>
       </c>
       <c r="I41" t="n">
-        <v>1813</v>
+        <v>1782</v>
       </c>
       <c r="J41" t="n">
-        <v>1826</v>
+        <v>1790</v>
       </c>
       <c r="K41" t="n">
-        <v>10070</v>
+        <v>121129</v>
       </c>
       <c r="L41" t="n">
-        <v>138628</v>
+        <v>484452</v>
       </c>
       <c r="M41" t="n">
-        <v>1820.341971433374</v>
+        <v>1818.506940318948</v>
       </c>
       <c r="N41" t="n">
-        <v>1821.019350548911</v>
+        <v>1827.166930921236</v>
       </c>
       <c r="O41" t="n">
-        <v>0.6773791155374056</v>
+        <v>8.659990602287962</v>
       </c>
       <c r="P41" t="n">
         <v>-1</v>
@@ -3425,19 +3429,19 @@
         <v>59</v>
       </c>
       <c r="B42" t="n">
-        <v>3888285</v>
+        <v>52807384</v>
       </c>
       <c r="C42" t="n">
-        <v>1705023000</v>
+        <v>1711330200</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SA24091705023000</t>
+          <t>SA24091711330200</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2024-01-12 09:30:00</t>
+          <t>2024-03-25 09:30:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3446,31 +3450,31 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1826</v>
+        <v>1789</v>
       </c>
       <c r="H42" t="n">
-        <v>1829</v>
+        <v>1792</v>
       </c>
       <c r="I42" t="n">
-        <v>1822</v>
+        <v>1784</v>
       </c>
       <c r="J42" t="n">
-        <v>1824</v>
+        <v>1786</v>
       </c>
       <c r="K42" t="n">
-        <v>3024</v>
+        <v>30994</v>
       </c>
       <c r="L42" t="n">
-        <v>138629</v>
+        <v>502597</v>
       </c>
       <c r="M42" t="n">
-        <v>1821.561314288916</v>
+        <v>1807.671293545965</v>
       </c>
       <c r="N42" t="n">
-        <v>1821.561286812745</v>
+        <v>1819.682034390102</v>
       </c>
       <c r="O42" t="n">
-        <v>2.747617077147879e-05</v>
+        <v>12.01074084413654</v>
       </c>
       <c r="P42" t="n">
         <v>-1</v>
@@ -3488,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V42" t="inlineStr"/>
     </row>
@@ -3497,19 +3501,19 @@
         <v>58</v>
       </c>
       <c r="B43" t="n">
-        <v>3920989</v>
+        <v>52838044</v>
       </c>
       <c r="C43" t="n">
-        <v>1705023900</v>
+        <v>1711331100</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>SA24091705023900</t>
+          <t>SA24091711331100</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2024-01-12 09:45:00</t>
+          <t>2024-03-25 09:45:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3518,31 +3522,31 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1824</v>
+        <v>1786</v>
       </c>
       <c r="H43" t="n">
-        <v>1829</v>
+        <v>1795</v>
       </c>
       <c r="I43" t="n">
-        <v>1821</v>
+        <v>1780</v>
       </c>
       <c r="J43" t="n">
-        <v>1827</v>
+        <v>1793</v>
       </c>
       <c r="K43" t="n">
-        <v>2379</v>
+        <v>30466</v>
       </c>
       <c r="L43" t="n">
-        <v>139363</v>
+        <v>512476</v>
       </c>
       <c r="M43" t="n">
-        <v>1823.374209525944</v>
+        <v>1802.780862363977</v>
       </c>
       <c r="N43" t="n">
-        <v>1822.550143755883</v>
+        <v>1814.830755410083</v>
       </c>
       <c r="O43" t="n">
-        <v>0.8240657700616794</v>
+        <v>12.04989304610604</v>
       </c>
       <c r="P43" t="n">
         <v>-1</v>
@@ -3560,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V43" t="inlineStr"/>
     </row>
@@ -3569,19 +3573,19 @@
         <v>57</v>
       </c>
       <c r="B44" t="n">
-        <v>3951649</v>
+        <v>52871770</v>
       </c>
       <c r="C44" t="n">
-        <v>1705024800</v>
+        <v>1711332000</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SA24091705024800</t>
+          <t>SA24091711332000</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2024-01-12 10:00:00</t>
+          <t>2024-03-25 10:00:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3590,31 +3594,31 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1829</v>
+        <v>1794</v>
       </c>
       <c r="H44" t="n">
-        <v>1831</v>
+        <v>1796</v>
       </c>
       <c r="I44" t="n">
-        <v>1826</v>
+        <v>1789</v>
       </c>
       <c r="J44" t="n">
-        <v>1828</v>
+        <v>1791</v>
       </c>
       <c r="K44" t="n">
-        <v>1659</v>
+        <v>14741</v>
       </c>
       <c r="L44" t="n">
-        <v>139558</v>
+        <v>517134</v>
       </c>
       <c r="M44" t="n">
-        <v>1824.916139683963</v>
+        <v>1798.853908242652</v>
       </c>
       <c r="N44" t="n">
-        <v>1823.541026709358</v>
+        <v>1810.497890790068</v>
       </c>
       <c r="O44" t="n">
-        <v>1.375112974604463</v>
+        <v>11.6439825474165</v>
       </c>
       <c r="P44" t="n">
         <v>-1</v>
@@ -3632,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V44" t="inlineStr"/>
     </row>
@@ -3641,19 +3645,19 @@
         <v>56</v>
       </c>
       <c r="B45" t="n">
-        <v>3978221</v>
+        <v>52901408</v>
       </c>
       <c r="C45" t="n">
-        <v>1705025700</v>
+        <v>1711332900</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SA24091705025700</t>
+          <t>SA24091711332900</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2024-01-12 10:15:00</t>
+          <t>2024-03-25 10:15:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3662,31 +3666,31 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1829</v>
+        <v>1790</v>
       </c>
       <c r="H45" t="n">
-        <v>1830</v>
+        <v>1795</v>
       </c>
       <c r="I45" t="n">
-        <v>1825</v>
+        <v>1787</v>
       </c>
       <c r="J45" t="n">
-        <v>1830</v>
+        <v>1790</v>
       </c>
       <c r="K45" t="n">
-        <v>1444</v>
+        <v>13848</v>
       </c>
       <c r="L45" t="n">
-        <v>139540</v>
+        <v>518721</v>
       </c>
       <c r="M45" t="n">
-        <v>1826.610759789309</v>
+        <v>1795.902605495101</v>
       </c>
       <c r="N45" t="n">
-        <v>1824.715385489475</v>
+        <v>1806.77100155551</v>
       </c>
       <c r="O45" t="n">
-        <v>1.895374299833748</v>
+        <v>10.86839606040894</v>
       </c>
       <c r="P45" t="n">
         <v>-1</v>
@@ -3704,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V45" t="inlineStr"/>
     </row>
@@ -3713,19 +3717,19 @@
         <v>55</v>
       </c>
       <c r="B46" t="n">
-        <v>4038519</v>
+        <v>52956596</v>
       </c>
       <c r="C46" t="n">
-        <v>1705027500</v>
+        <v>1711334700</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>SA24091705027500</t>
+          <t>SA24091711334700</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2024-01-12 10:45:00</t>
+          <t>2024-03-25 10:45:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3734,31 +3738,31 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1831</v>
+        <v>1790</v>
       </c>
       <c r="H46" t="n">
-        <v>1835</v>
+        <v>1795</v>
       </c>
       <c r="I46" t="n">
-        <v>1827</v>
+        <v>1784</v>
       </c>
       <c r="J46" t="n">
-        <v>1829</v>
+        <v>1793</v>
       </c>
       <c r="K46" t="n">
-        <v>3078</v>
+        <v>14719</v>
       </c>
       <c r="L46" t="n">
-        <v>139665</v>
+        <v>522389</v>
       </c>
       <c r="M46" t="n">
-        <v>1827.407173192873</v>
+        <v>1794.935070330068</v>
       </c>
       <c r="N46" t="n">
-        <v>1825.49440630957</v>
+        <v>1804.267183090872</v>
       </c>
       <c r="O46" t="n">
-        <v>1.912766883302083</v>
+        <v>9.332112760804193</v>
       </c>
       <c r="P46" t="n">
         <v>-1</v>
@@ -3776,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V46" t="inlineStr"/>
     </row>
@@ -3785,19 +3789,19 @@
         <v>54</v>
       </c>
       <c r="B47" t="n">
-        <v>4071223</v>
+        <v>52986234</v>
       </c>
       <c r="C47" t="n">
-        <v>1705028400</v>
+        <v>1711335600</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SA24091705028400</t>
+          <t>SA24091711335600</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2024-01-12 11:00:00</t>
+          <t>2024-03-25 11:00:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3806,31 +3810,31 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1829</v>
+        <v>1794</v>
       </c>
       <c r="H47" t="n">
-        <v>1835</v>
+        <v>1808</v>
       </c>
       <c r="I47" t="n">
-        <v>1827</v>
+        <v>1793</v>
       </c>
       <c r="J47" t="n">
-        <v>1832</v>
+        <v>1807</v>
       </c>
       <c r="K47" t="n">
-        <v>2626</v>
+        <v>47681</v>
       </c>
       <c r="L47" t="n">
-        <v>139773</v>
+        <v>525788</v>
       </c>
       <c r="M47" t="n">
-        <v>1828.938115461915</v>
+        <v>1798.956713553379</v>
       </c>
       <c r="N47" t="n">
-        <v>1826.677241526012</v>
+        <v>1804.764058892531</v>
       </c>
       <c r="O47" t="n">
-        <v>2.260873935902964</v>
+        <v>5.807345339152789</v>
       </c>
       <c r="P47" t="n">
         <v>-1</v>
@@ -3848,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V47" t="inlineStr"/>
     </row>
@@ -3857,19 +3861,19 @@
         <v>53</v>
       </c>
       <c r="B48" t="n">
-        <v>4099839</v>
+        <v>53015872</v>
       </c>
       <c r="C48" t="n">
-        <v>1705029300</v>
+        <v>1711336500</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>SA24091705029300</t>
+          <t>SA24091711336500</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2024-01-12 11:15:00</t>
+          <t>2024-03-25 11:15:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3878,34 +3882,34 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1831</v>
+        <v>1807</v>
       </c>
       <c r="H48" t="n">
-        <v>1838</v>
+        <v>1814</v>
       </c>
       <c r="I48" t="n">
-        <v>1830</v>
+        <v>1803</v>
       </c>
       <c r="J48" t="n">
-        <v>1834</v>
+        <v>1805</v>
       </c>
       <c r="K48" t="n">
-        <v>3762</v>
+        <v>29854</v>
       </c>
       <c r="L48" t="n">
-        <v>139598</v>
+        <v>526685</v>
       </c>
       <c r="M48" t="n">
-        <v>1830.625410307943</v>
+        <v>1800.971142368919</v>
       </c>
       <c r="N48" t="n">
-        <v>1828.008652157646</v>
+        <v>1804.806957275707</v>
       </c>
       <c r="O48" t="n">
-        <v>2.616758150297301</v>
+        <v>3.835814906788301</v>
       </c>
       <c r="P48" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="n">
         <v>0</v>
@@ -3914,34 +3918,36 @@
         <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>2192</v>
       </c>
       <c r="T48" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="U48" t="n">
-        <v>1</v>
-      </c>
-      <c r="V48" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="V48" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B49" t="n">
-        <v>4128455</v>
+        <v>53046532</v>
       </c>
       <c r="C49" t="n">
-        <v>1705030200</v>
+        <v>1711337400</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SA24091705030200</t>
+          <t>SA24091711337400</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2024-01-12 11:30:00</t>
+          <t>2024-03-25 11:30:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3950,34 +3956,34 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1834</v>
+        <v>1805</v>
       </c>
       <c r="H49" t="n">
-        <v>1834</v>
+        <v>1820</v>
       </c>
       <c r="I49" t="n">
-        <v>1824</v>
+        <v>1804</v>
       </c>
       <c r="J49" t="n">
-        <v>1825</v>
+        <v>1807</v>
       </c>
       <c r="K49" t="n">
-        <v>2625</v>
+        <v>28222</v>
       </c>
       <c r="L49" t="n">
-        <v>139112</v>
+        <v>529007</v>
       </c>
       <c r="M49" t="n">
-        <v>1828.750273538629</v>
+        <v>1802.980761579279</v>
       </c>
       <c r="N49" t="n">
-        <v>1827.461624492619</v>
+        <v>1805.205692316488</v>
       </c>
       <c r="O49" t="n">
-        <v>1.288649046009596</v>
+        <v>2.224930737208297</v>
       </c>
       <c r="P49" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="n">
         <v>0</v>
@@ -3992,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V49" t="inlineStr"/>
     </row>
@@ -4001,19 +4007,19 @@
         <v>51</v>
       </c>
       <c r="B50" t="n">
-        <v>4281756</v>
+        <v>53076170</v>
       </c>
       <c r="C50" t="n">
-        <v>1705038300</v>
+        <v>1711345500</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>SA24091705038300</t>
+          <t>SA24091711345500</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2024-01-12 13:45:00</t>
+          <t>2024-03-25 13:45:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4022,34 +4028,34 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1825</v>
+        <v>1803</v>
       </c>
       <c r="H50" t="n">
-        <v>1825</v>
+        <v>1804</v>
       </c>
       <c r="I50" t="n">
-        <v>1815</v>
+        <v>1793</v>
       </c>
       <c r="J50" t="n">
-        <v>1815</v>
+        <v>1796</v>
       </c>
       <c r="K50" t="n">
-        <v>5356</v>
+        <v>37565</v>
       </c>
       <c r="L50" t="n">
-        <v>139229</v>
+        <v>531271</v>
       </c>
       <c r="M50" t="n">
-        <v>1824.166849025753</v>
+        <v>1800.653841052853</v>
       </c>
       <c r="N50" t="n">
-        <v>1825.19587458487</v>
+        <v>1803.531930077126</v>
       </c>
       <c r="O50" t="n">
-        <v>1.029025559117599</v>
+        <v>2.878089024272867</v>
       </c>
       <c r="P50" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="n">
         <v>0</v>
@@ -4064,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="V50" t="inlineStr"/>
     </row>
@@ -4073,19 +4079,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>4312416</v>
+        <v>53107852</v>
       </c>
       <c r="C51" t="n">
-        <v>1705039200</v>
+        <v>1711346400</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>SA24091705039200</t>
+          <t>SA24091711346400</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2024-01-12 14:00:00</t>
+          <t>2024-03-25 14:00:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4094,34 +4100,34 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1814</v>
+        <v>1796</v>
       </c>
       <c r="H51" t="n">
-        <v>1818</v>
+        <v>1797</v>
       </c>
       <c r="I51" t="n">
-        <v>1811</v>
+        <v>1790</v>
       </c>
       <c r="J51" t="n">
-        <v>1814</v>
+        <v>1794</v>
       </c>
       <c r="K51" t="n">
-        <v>4209</v>
+        <v>21720</v>
       </c>
       <c r="L51" t="n">
-        <v>140052</v>
+        <v>535930</v>
       </c>
       <c r="M51" t="n">
-        <v>1820.777899350502</v>
+        <v>1798.435894035236</v>
       </c>
       <c r="N51" t="n">
-        <v>1823.160261023985</v>
+        <v>1801.798851881285</v>
       </c>
       <c r="O51" t="n">
-        <v>2.382361673482592</v>
+        <v>3.362957846049312</v>
       </c>
       <c r="P51" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="n">
         <v>0</v>
@@ -4136,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="V51" t="inlineStr"/>
     </row>
@@ -4145,19 +4151,19 @@
         <v>49</v>
       </c>
       <c r="B52" t="n">
-        <v>4343076</v>
+        <v>53136468</v>
       </c>
       <c r="C52" t="n">
-        <v>1705040100</v>
+        <v>1711347300</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SA24091705040100</t>
+          <t>SA24091711347300</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2024-01-12 14:15:00</t>
+          <t>2024-03-25 14:15:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4166,40 +4172,40 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1813</v>
+        <v>1793</v>
       </c>
       <c r="H52" t="n">
-        <v>1821</v>
+        <v>1795</v>
       </c>
       <c r="I52" t="n">
-        <v>1812</v>
+        <v>1780</v>
       </c>
       <c r="J52" t="n">
+        <v>1781</v>
+      </c>
+      <c r="K52" t="n">
+        <v>40561</v>
+      </c>
+      <c r="L52" t="n">
+        <v>539462</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1792.623929356824</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1798.017242448324</v>
+      </c>
+      <c r="O52" t="n">
+        <v>5.393313091500204</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q52" t="n">
         <v>1816</v>
       </c>
-      <c r="K52" t="n">
-        <v>3274</v>
-      </c>
-      <c r="L52" t="n">
-        <v>140791</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1819.185266233668</v>
-      </c>
-      <c r="N52" t="n">
-        <v>1821.85839538326</v>
-      </c>
-      <c r="O52" t="n">
-        <v>2.673129149591887</v>
-      </c>
-      <c r="P52" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0</v>
-      </c>
       <c r="R52" t="n">
-        <v>0</v>
+        <v>1781</v>
       </c>
       <c r="S52" t="n">
         <v>0</v>
@@ -4217,19 +4223,19 @@
         <v>48</v>
       </c>
       <c r="B53" t="n">
-        <v>4373736</v>
+        <v>53168151</v>
       </c>
       <c r="C53" t="n">
-        <v>1705041000</v>
+        <v>1711348200</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SA24091705041000</t>
+          <t>SA24091711348200</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2024-01-12 14:30:00</t>
+          <t>2024-03-25 14:30:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4238,31 +4244,31 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1816</v>
+        <v>1780</v>
       </c>
       <c r="H53" t="n">
-        <v>1820</v>
+        <v>1785</v>
       </c>
       <c r="I53" t="n">
-        <v>1813</v>
+        <v>1765</v>
       </c>
       <c r="J53" t="n">
-        <v>1816</v>
+        <v>1776</v>
       </c>
       <c r="K53" t="n">
-        <v>1804</v>
+        <v>64980</v>
       </c>
       <c r="L53" t="n">
-        <v>140417</v>
+        <v>551252</v>
       </c>
       <c r="M53" t="n">
-        <v>1818.123510822445</v>
+        <v>1787.082619571216</v>
       </c>
       <c r="N53" t="n">
-        <v>1820.793232586304</v>
+        <v>1794.01410745772</v>
       </c>
       <c r="O53" t="n">
-        <v>2.669721763858206</v>
+        <v>6.931487886503646</v>
       </c>
       <c r="P53" t="n">
         <v>-1</v>
@@ -4289,19 +4295,19 @@
         <v>47</v>
       </c>
       <c r="B54" t="n">
-        <v>4404396</v>
+        <v>53197789</v>
       </c>
       <c r="C54" t="n">
-        <v>1705041900</v>
+        <v>1711349100</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>SA24091705041900</t>
+          <t>SA24091711349100</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2024-01-12 14:45:00</t>
+          <t>2024-03-25 14:45:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4310,31 +4316,31 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1816</v>
+        <v>1776</v>
       </c>
       <c r="H54" t="n">
-        <v>1819</v>
+        <v>1781</v>
       </c>
       <c r="I54" t="n">
-        <v>1811</v>
+        <v>1774</v>
       </c>
       <c r="J54" t="n">
-        <v>1815</v>
+        <v>1775</v>
       </c>
       <c r="K54" t="n">
-        <v>3293</v>
+        <v>25798</v>
       </c>
       <c r="L54" t="n">
-        <v>140469</v>
+        <v>563226</v>
       </c>
       <c r="M54" t="n">
-        <v>1817.082340548297</v>
+        <v>1783.055079714144</v>
       </c>
       <c r="N54" t="n">
-        <v>1819.739917570612</v>
+        <v>1790.556997010861</v>
       </c>
       <c r="O54" t="n">
-        <v>2.657577022314854</v>
+        <v>7.501917296717238</v>
       </c>
       <c r="P54" t="n">
         <v>-1</v>
@@ -4361,19 +4367,19 @@
         <v>46</v>
       </c>
       <c r="B55" t="n">
-        <v>4435056</v>
+        <v>53228449</v>
       </c>
       <c r="C55" t="n">
-        <v>1705042800</v>
+        <v>1711350000</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SA24091705042800</t>
+          <t>SA24091711350000</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2024-01-12 15:00:00</t>
+          <t>2024-03-25 15:00:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4382,31 +4388,31 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1816</v>
+        <v>1776</v>
       </c>
       <c r="H55" t="n">
-        <v>1818</v>
+        <v>1785</v>
       </c>
       <c r="I55" t="n">
-        <v>1812</v>
+        <v>1772</v>
       </c>
       <c r="J55" t="n">
-        <v>1817</v>
+        <v>1777</v>
       </c>
       <c r="K55" t="n">
-        <v>2509</v>
+        <v>29938</v>
       </c>
       <c r="L55" t="n">
-        <v>140874</v>
+        <v>568109</v>
       </c>
       <c r="M55" t="n">
-        <v>1817.054893698865</v>
+        <v>1781.03671980943</v>
       </c>
       <c r="N55" t="n">
-        <v>1819.241750739592</v>
+        <v>1788.092088463432</v>
       </c>
       <c r="O55" t="n">
-        <v>2.186857040726863</v>
+        <v>7.05536865400245</v>
       </c>
       <c r="P55" t="n">
         <v>-1</v>
@@ -4433,19 +4439,19 @@
         <v>45</v>
       </c>
       <c r="B56" t="n">
-        <v>4869406</v>
+        <v>53294879</v>
       </c>
       <c r="C56" t="n">
-        <v>1705065300</v>
+        <v>1711372500</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>SA24091705065300</t>
+          <t>SA24091711372500</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2024-01-12 21:15:00</t>
+          <t>2024-03-25 21:15:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4454,31 +4460,31 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1819</v>
+        <v>1777</v>
       </c>
       <c r="H56" t="n">
-        <v>1822</v>
+        <v>1790</v>
       </c>
       <c r="I56" t="n">
-        <v>1812</v>
+        <v>1776</v>
       </c>
       <c r="J56" t="n">
-        <v>1814</v>
+        <v>1788</v>
       </c>
       <c r="K56" t="n">
-        <v>4773</v>
+        <v>59636</v>
       </c>
       <c r="L56" t="n">
-        <v>140170</v>
+        <v>568935</v>
       </c>
       <c r="M56" t="n">
-        <v>1816.036595799244</v>
+        <v>1783.357813206286</v>
       </c>
       <c r="N56" t="n">
-        <v>1818.288705150575</v>
+        <v>1788.075345106444</v>
       </c>
       <c r="O56" t="n">
-        <v>2.252109351331228</v>
+        <v>4.717531900157837</v>
       </c>
       <c r="P56" t="n">
         <v>-1</v>
@@ -4505,19 +4511,19 @@
         <v>44</v>
       </c>
       <c r="B57" t="n">
-        <v>4891890</v>
+        <v>53322473</v>
       </c>
       <c r="C57" t="n">
-        <v>1705066200</v>
+        <v>1711373400</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>SA24091705066200</t>
+          <t>SA24091711373400</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2024-01-12 21:30:00</t>
+          <t>2024-03-25 21:30:00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4526,31 +4532,31 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1815</v>
+        <v>1788</v>
       </c>
       <c r="H57" t="n">
-        <v>1817</v>
+        <v>1789</v>
       </c>
       <c r="I57" t="n">
-        <v>1804</v>
+        <v>1779</v>
       </c>
       <c r="J57" t="n">
-        <v>1807</v>
+        <v>1779</v>
       </c>
       <c r="K57" t="n">
-        <v>7037</v>
+        <v>29328</v>
       </c>
       <c r="L57" t="n">
-        <v>140811</v>
+        <v>574187</v>
       </c>
       <c r="M57" t="n">
-        <v>1813.024397199496</v>
+        <v>1781.905208804191</v>
       </c>
       <c r="N57" t="n">
-        <v>1816.236213305016</v>
+        <v>1786.425282359818</v>
       </c>
       <c r="O57" t="n">
-        <v>3.211816105519802</v>
+        <v>4.52007355562705</v>
       </c>
       <c r="P57" t="n">
         <v>-1</v>
@@ -4577,19 +4583,19 @@
         <v>43</v>
       </c>
       <c r="B58" t="n">
-        <v>4918462</v>
+        <v>53354155</v>
       </c>
       <c r="C58" t="n">
-        <v>1705067100</v>
+        <v>1711374300</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SA24091705067100</t>
+          <t>SA24091711374300</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2024-01-12 21:45:00</t>
+          <t>2024-03-25 21:45:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4598,31 +4604,31 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1807</v>
+        <v>1779</v>
       </c>
       <c r="H58" t="n">
-        <v>1810</v>
+        <v>1784</v>
       </c>
       <c r="I58" t="n">
-        <v>1805</v>
+        <v>1763</v>
       </c>
       <c r="J58" t="n">
-        <v>1806</v>
+        <v>1772</v>
       </c>
       <c r="K58" t="n">
-        <v>2200</v>
+        <v>59511</v>
       </c>
       <c r="L58" t="n">
-        <v>141591</v>
+        <v>578757</v>
       </c>
       <c r="M58" t="n">
-        <v>1810.682931466331</v>
+        <v>1778.603472536127</v>
       </c>
       <c r="N58" t="n">
-        <v>1814.375083613194</v>
+        <v>1783.802503748942</v>
       </c>
       <c r="O58" t="n">
-        <v>3.692152146863691</v>
+        <v>5.199031212814589</v>
       </c>
       <c r="P58" t="n">
         <v>-1</v>
@@ -4649,19 +4655,19 @@
         <v>42</v>
       </c>
       <c r="B59" t="n">
-        <v>4953210</v>
+        <v>53382771</v>
       </c>
       <c r="C59" t="n">
-        <v>1705068000</v>
+        <v>1711375200</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>SA24091705068000</t>
+          <t>SA24091711375200</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2024-01-12 22:00:00</t>
+          <t>2024-03-25 22:00:00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4670,31 +4676,31 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1807</v>
+        <v>1772</v>
       </c>
       <c r="H59" t="n">
-        <v>1811</v>
+        <v>1779</v>
       </c>
       <c r="I59" t="n">
-        <v>1806</v>
+        <v>1768</v>
       </c>
       <c r="J59" t="n">
-        <v>1808</v>
+        <v>1777</v>
       </c>
       <c r="K59" t="n">
-        <v>1963</v>
+        <v>29025</v>
       </c>
       <c r="L59" t="n">
-        <v>142019</v>
+        <v>590578</v>
       </c>
       <c r="M59" t="n">
-        <v>1809.788620977554</v>
+        <v>1778.068981690752</v>
       </c>
       <c r="N59" t="n">
-        <v>1813.215977501704</v>
+        <v>1782.565684885498</v>
       </c>
       <c r="O59" t="n">
-        <v>3.427356524150582</v>
+        <v>4.49670319474626</v>
       </c>
       <c r="P59" t="n">
         <v>-1</v>
@@ -4721,19 +4727,19 @@
         <v>41</v>
       </c>
       <c r="B60" t="n">
-        <v>4983870</v>
+        <v>53413431</v>
       </c>
       <c r="C60" t="n">
-        <v>1705068900</v>
+        <v>1711376100</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SA24091705068900</t>
+          <t>SA24091711376100</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2024-01-12 22:15:00</t>
+          <t>2024-03-25 22:15:00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4742,31 +4748,31 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1806</v>
+        <v>1778</v>
       </c>
       <c r="H60" t="n">
-        <v>1814</v>
+        <v>1782</v>
       </c>
       <c r="I60" t="n">
-        <v>1805</v>
+        <v>1775</v>
       </c>
       <c r="J60" t="n">
-        <v>1810</v>
+        <v>1778</v>
       </c>
       <c r="K60" t="n">
-        <v>3019</v>
+        <v>25573</v>
       </c>
       <c r="L60" t="n">
-        <v>142366</v>
+        <v>591995</v>
       </c>
       <c r="M60" t="n">
-        <v>1809.859080651703</v>
+        <v>1778.045987793835</v>
       </c>
       <c r="N60" t="n">
-        <v>1812.631254319576</v>
+        <v>1781.735560360862</v>
       </c>
       <c r="O60" t="n">
-        <v>2.772173667873631</v>
+        <v>3.689572567026971</v>
       </c>
       <c r="P60" t="n">
         <v>-1</v>
@@ -4793,19 +4799,19 @@
         <v>40</v>
       </c>
       <c r="B61" t="n">
-        <v>5008398</v>
+        <v>53444091</v>
       </c>
       <c r="C61" t="n">
-        <v>1705069800</v>
+        <v>1711377000</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>SA24091705069800</t>
+          <t>SA24091711377000</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2024-01-12 22:30:00</t>
+          <t>2024-03-25 22:30:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4814,34 +4820,34 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1810</v>
+        <v>1777</v>
       </c>
       <c r="H61" t="n">
-        <v>1812</v>
+        <v>1782</v>
       </c>
       <c r="I61" t="n">
-        <v>1808</v>
+        <v>1774</v>
       </c>
       <c r="J61" t="n">
-        <v>1810</v>
+        <v>1781</v>
       </c>
       <c r="K61" t="n">
-        <v>1488</v>
+        <v>13981</v>
       </c>
       <c r="L61" t="n">
-        <v>142191</v>
+        <v>594293</v>
       </c>
       <c r="M61" t="n">
-        <v>1809.906053767802</v>
+        <v>1779.030658529223</v>
       </c>
       <c r="N61" t="n">
-        <v>1812.15284444329</v>
+        <v>1781.601822113432</v>
       </c>
       <c r="O61" t="n">
-        <v>2.246790675487773</v>
+        <v>2.571163584208762</v>
       </c>
       <c r="P61" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q61" t="n">
         <v>0</v>
@@ -4850,34 +4856,36 @@
         <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>0</v>
+        <v>-48</v>
       </c>
       <c r="T61" t="n">
         <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>-1</v>
-      </c>
-      <c r="V61" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="V61" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B62" t="n">
-        <v>5017596</v>
+        <v>53473729</v>
       </c>
       <c r="C62" t="n">
-        <v>1705070700</v>
+        <v>1711377900</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>SA24091705070700</t>
+          <t>SA24091711377900</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2024-01-12 22:45:00</t>
+          <t>2024-03-25 22:45:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4886,34 +4894,34 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1810</v>
+        <v>1780</v>
       </c>
       <c r="H62" t="n">
-        <v>1817</v>
+        <v>1781</v>
       </c>
       <c r="I62" t="n">
-        <v>1808</v>
+        <v>1771</v>
       </c>
       <c r="J62" t="n">
-        <v>1816</v>
+        <v>1775</v>
       </c>
       <c r="K62" t="n">
-        <v>2214</v>
+        <v>18409</v>
       </c>
       <c r="L62" t="n">
-        <v>142348</v>
+        <v>595410</v>
       </c>
       <c r="M62" t="n">
-        <v>1811.937369178535</v>
+        <v>1777.687105686149</v>
       </c>
       <c r="N62" t="n">
-        <v>1812.852327271783</v>
+        <v>1780.401490820081</v>
       </c>
       <c r="O62" t="n">
-        <v>0.9149580932478329</v>
+        <v>2.714385133931501</v>
       </c>
       <c r="P62" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q62" t="n">
         <v>0</v>
@@ -4928,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="U62" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="V62" t="inlineStr"/>
     </row>
@@ -4937,19 +4945,19 @@
         <v>38</v>
       </c>
       <c r="B63" t="n">
-        <v>5024751</v>
+        <v>53505411</v>
       </c>
       <c r="C63" t="n">
-        <v>1705071600</v>
+        <v>1711378800</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>SA24091705071600</t>
+          <t>SA24091711378800</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2024-01-12 23:00:00</t>
+          <t>2024-03-25 23:00:00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4958,34 +4966,34 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1816</v>
+        <v>1775</v>
       </c>
       <c r="H63" t="n">
-        <v>1819</v>
+        <v>1782</v>
       </c>
       <c r="I63" t="n">
-        <v>1813</v>
+        <v>1775</v>
       </c>
       <c r="J63" t="n">
-        <v>1813</v>
+        <v>1780</v>
       </c>
       <c r="K63" t="n">
-        <v>2576</v>
+        <v>17508</v>
       </c>
       <c r="L63" t="n">
-        <v>141910</v>
+        <v>595916</v>
       </c>
       <c r="M63" t="n">
-        <v>1812.291579452356</v>
+        <v>1778.458070457433</v>
       </c>
       <c r="N63" t="n">
-        <v>1812.879176858731</v>
+        <v>1780.328492489157</v>
       </c>
       <c r="O63" t="n">
-        <v>0.587597406374698</v>
+        <v>1.870422031724047</v>
       </c>
       <c r="P63" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q63" t="n">
         <v>0</v>
@@ -5000,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="V63" t="inlineStr"/>
     </row>
@@ -5009,19 +5017,19 @@
         <v>37</v>
       </c>
       <c r="B64" t="n">
-        <v>5083005</v>
+        <v>53538115</v>
       </c>
       <c r="C64" t="n">
-        <v>1705281300</v>
+        <v>1711415700</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>SA24091705281300</t>
+          <t>SA24091711415700</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2024-01-15 09:15:00</t>
+          <t>2024-03-26 09:15:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5030,34 +5038,34 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1813</v>
+        <v>1781</v>
       </c>
       <c r="H64" t="n">
-        <v>1827</v>
+        <v>1787</v>
       </c>
       <c r="I64" t="n">
-        <v>1809</v>
+        <v>1778</v>
       </c>
       <c r="J64" t="n">
-        <v>1827</v>
+        <v>1785</v>
       </c>
       <c r="K64" t="n">
-        <v>7269</v>
+        <v>25561</v>
       </c>
       <c r="L64" t="n">
-        <v>141517</v>
+        <v>590888</v>
       </c>
       <c r="M64" t="n">
-        <v>1817.194386301571</v>
+        <v>1780.638713638289</v>
       </c>
       <c r="N64" t="n">
-        <v>1815.446599248053</v>
+        <v>1781.177857491128</v>
       </c>
       <c r="O64" t="n">
-        <v>1.747787053518323</v>
+        <v>0.5391438528395156</v>
       </c>
       <c r="P64" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q64" t="n">
         <v>0</v>
@@ -5072,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="U64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V64" t="inlineStr"/>
     </row>
@@ -5081,19 +5089,19 @@
         <v>36</v>
       </c>
       <c r="B65" t="n">
-        <v>5101401</v>
+        <v>53567753</v>
       </c>
       <c r="C65" t="n">
-        <v>1705282200</v>
+        <v>1711416600</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>SA24091705282200</t>
+          <t>SA24091711416600</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2024-01-15 09:30:00</t>
+          <t>2024-03-26 09:30:00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5102,34 +5110,34 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1827</v>
+        <v>1786</v>
       </c>
       <c r="H65" t="n">
-        <v>1829</v>
+        <v>1793</v>
       </c>
       <c r="I65" t="n">
-        <v>1815</v>
+        <v>1780</v>
       </c>
       <c r="J65" t="n">
-        <v>1818</v>
+        <v>1780</v>
       </c>
       <c r="K65" t="n">
-        <v>5628</v>
+        <v>34382</v>
       </c>
       <c r="L65" t="n">
-        <v>141469</v>
+        <v>591517</v>
       </c>
       <c r="M65" t="n">
-        <v>1817.462924201048</v>
+        <v>1780.425809092193</v>
       </c>
       <c r="N65" t="n">
-        <v>1815.910853930225</v>
+        <v>1780.96370158365</v>
       </c>
       <c r="O65" t="n">
-        <v>1.552070270822696</v>
+        <v>0.5378924914575691</v>
       </c>
       <c r="P65" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q65" t="n">
         <v>0</v>
@@ -5144,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="U65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V65" t="inlineStr"/>
     </row>
@@ -5153,19 +5161,19 @@
         <v>35</v>
       </c>
       <c r="B66" t="n">
-        <v>5134105</v>
+        <v>53598413</v>
       </c>
       <c r="C66" t="n">
-        <v>1705283100</v>
+        <v>1711417500</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>SA24091705283100</t>
+          <t>SA24091711417500</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2024-01-15 09:45:00</t>
+          <t>2024-03-26 09:45:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5174,34 +5182,34 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1819</v>
+        <v>1780</v>
       </c>
       <c r="H66" t="n">
-        <v>1825</v>
+        <v>1786</v>
       </c>
       <c r="I66" t="n">
-        <v>1817</v>
+        <v>1775</v>
       </c>
       <c r="J66" t="n">
-        <v>1825</v>
+        <v>1784</v>
       </c>
       <c r="K66" t="n">
-        <v>2255</v>
+        <v>20091</v>
       </c>
       <c r="L66" t="n">
-        <v>141962</v>
+        <v>593659</v>
       </c>
       <c r="M66" t="n">
-        <v>1819.975282800699</v>
+        <v>1781.617206061462</v>
       </c>
       <c r="N66" t="n">
-        <v>1817.563425942911</v>
+        <v>1781.515755841168</v>
       </c>
       <c r="O66" t="n">
-        <v>2.41185685778737</v>
+        <v>0.1014502202933727</v>
       </c>
       <c r="P66" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q66" t="n">
         <v>0</v>
@@ -5216,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="U66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V66" t="inlineStr"/>
     </row>
@@ -5225,19 +5233,19 @@
         <v>34</v>
       </c>
       <c r="B67" t="n">
-        <v>5164765</v>
+        <v>53630095</v>
       </c>
       <c r="C67" t="n">
-        <v>1705284000</v>
+        <v>1711418400</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>SA24091705284000</t>
+          <t>SA24091711418400</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2024-01-15 10:00:00</t>
+          <t>2024-03-26 10:00:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5246,40 +5254,40 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1824</v>
+        <v>1784</v>
       </c>
       <c r="H67" t="n">
-        <v>1827</v>
+        <v>1790</v>
       </c>
       <c r="I67" t="n">
-        <v>1821</v>
+        <v>1778</v>
       </c>
       <c r="J67" t="n">
-        <v>1822</v>
+        <v>1786</v>
       </c>
       <c r="K67" t="n">
-        <v>1506</v>
+        <v>17093</v>
       </c>
       <c r="L67" t="n">
-        <v>141930</v>
+        <v>597293</v>
       </c>
       <c r="M67" t="n">
-        <v>1820.650188533799</v>
+        <v>1783.078137374308</v>
       </c>
       <c r="N67" t="n">
-        <v>1818.370075771473</v>
+        <v>1782.331072960956</v>
       </c>
       <c r="O67" t="n">
-        <v>2.280112762326553</v>
+        <v>0.7470644133520636</v>
       </c>
       <c r="P67" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>1751</v>
       </c>
       <c r="R67" t="n">
-        <v>0</v>
+        <v>1786</v>
       </c>
       <c r="S67" t="n">
         <v>0</v>
@@ -5297,19 +5305,19 @@
         <v>33</v>
       </c>
       <c r="B68" t="n">
-        <v>5195425</v>
+        <v>53660755</v>
       </c>
       <c r="C68" t="n">
-        <v>1705284900</v>
+        <v>1711419300</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>SA24091705284900</t>
+          <t>SA24091711419300</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2024-01-15 10:15:00</t>
+          <t>2024-03-26 10:15:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5318,34 +5326,34 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1823</v>
+        <v>1787</v>
       </c>
       <c r="H68" t="n">
-        <v>1827</v>
+        <v>1788</v>
       </c>
       <c r="I68" t="n">
-        <v>1822</v>
+        <v>1782</v>
       </c>
       <c r="J68" t="n">
-        <v>1823</v>
+        <v>1786</v>
       </c>
       <c r="K68" t="n">
-        <v>1168</v>
+        <v>16374</v>
       </c>
       <c r="L68" t="n">
-        <v>141889</v>
+        <v>596634</v>
       </c>
       <c r="M68" t="n">
-        <v>1821.433459022533</v>
+        <v>1784.052091582872</v>
       </c>
       <c r="N68" t="n">
-        <v>1819.211880176659</v>
+        <v>1782.998150604418</v>
       </c>
       <c r="O68" t="n">
-        <v>2.221578845873637</v>
+        <v>1.053940978453511</v>
       </c>
       <c r="P68" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q68" t="n">
         <v>0</v>
@@ -5369,19 +5377,19 @@
         <v>32</v>
       </c>
       <c r="B69" t="n">
-        <v>5252657</v>
+        <v>53719009</v>
       </c>
       <c r="C69" t="n">
-        <v>1705286700</v>
+        <v>1711421100</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>SA24091705286700</t>
+          <t>SA24091711421100</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2024-01-15 10:45:00</t>
+          <t>2024-03-26 10:45:00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5390,34 +5398,34 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1824</v>
+        <v>1787</v>
       </c>
       <c r="H69" t="n">
-        <v>1826</v>
+        <v>1792</v>
       </c>
       <c r="I69" t="n">
-        <v>1822</v>
+        <v>1784</v>
       </c>
       <c r="J69" t="n">
-        <v>1824</v>
+        <v>1790</v>
       </c>
       <c r="K69" t="n">
-        <v>1111</v>
+        <v>27174</v>
       </c>
       <c r="L69" t="n">
-        <v>141982</v>
+        <v>598023</v>
       </c>
       <c r="M69" t="n">
-        <v>1822.288972681689</v>
+        <v>1786.034727721915</v>
       </c>
       <c r="N69" t="n">
-        <v>1820.082447417267</v>
+        <v>1784.271214130888</v>
       </c>
       <c r="O69" t="n">
-        <v>2.206525264421998</v>
+        <v>1.763513591027049</v>
       </c>
       <c r="P69" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q69" t="n">
         <v>0</v>
@@ -5441,19 +5449,19 @@
         <v>31</v>
       </c>
       <c r="B70" t="n">
-        <v>5285361</v>
+        <v>53750691</v>
       </c>
       <c r="C70" t="n">
-        <v>1705287600</v>
+        <v>1711422000</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>SA24091705287600</t>
+          <t>SA24091711422000</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2024-01-15 11:00:00</t>
+          <t>2024-03-26 11:00:00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5462,34 +5470,34 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1824</v>
+        <v>1790</v>
       </c>
       <c r="H70" t="n">
-        <v>1830</v>
+        <v>1794</v>
       </c>
       <c r="I70" t="n">
-        <v>1823</v>
+        <v>1786</v>
       </c>
       <c r="J70" t="n">
-        <v>1828</v>
+        <v>1790</v>
       </c>
       <c r="K70" t="n">
-        <v>2486</v>
+        <v>18587</v>
       </c>
       <c r="L70" t="n">
-        <v>141738</v>
+        <v>596045</v>
       </c>
       <c r="M70" t="n">
-        <v>1824.192648454459</v>
+        <v>1787.356485147943</v>
       </c>
       <c r="N70" t="n">
-        <v>1821.522002432309</v>
+        <v>1785.312811561635</v>
       </c>
       <c r="O70" t="n">
-        <v>2.670646022149867</v>
+        <v>2.043673586307932</v>
       </c>
       <c r="P70" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q70" t="n">
         <v>0</v>
@@ -5513,19 +5521,19 @@
         <v>30</v>
       </c>
       <c r="B71" t="n">
-        <v>5316021</v>
+        <v>53778285</v>
       </c>
       <c r="C71" t="n">
-        <v>1705288500</v>
+        <v>1711422900</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>SA24091705288500</t>
+          <t>SA24091711422900</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2024-01-15 11:15:00</t>
+          <t>2024-03-26 11:15:00</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5534,34 +5542,34 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1828</v>
+        <v>1790</v>
       </c>
       <c r="H71" t="n">
-        <v>1830</v>
+        <v>1796</v>
       </c>
       <c r="I71" t="n">
-        <v>1824</v>
+        <v>1784</v>
       </c>
       <c r="J71" t="n">
-        <v>1827</v>
+        <v>1790</v>
       </c>
       <c r="K71" t="n">
-        <v>1178</v>
+        <v>28104</v>
       </c>
       <c r="L71" t="n">
-        <v>141506</v>
+        <v>595070</v>
       </c>
       <c r="M71" t="n">
-        <v>1825.128432302973</v>
+        <v>1788.237656765295</v>
       </c>
       <c r="N71" t="n">
-        <v>1822.518001990071</v>
+        <v>1786.165027641338</v>
       </c>
       <c r="O71" t="n">
-        <v>2.610430312901599</v>
+        <v>2.07262912395754</v>
       </c>
       <c r="P71" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q71" t="n">
         <v>0</v>
@@ -5585,19 +5593,19 @@
         <v>29</v>
       </c>
       <c r="B72" t="n">
-        <v>5344637</v>
+        <v>53808945</v>
       </c>
       <c r="C72" t="n">
-        <v>1705289400</v>
+        <v>1711423800</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SA24091705289400</t>
+          <t>SA24091711423800</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2024-01-15 11:30:00</t>
+          <t>2024-03-26 11:30:00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5606,34 +5614,34 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1827</v>
+        <v>1789</v>
       </c>
       <c r="H72" t="n">
-        <v>1827</v>
+        <v>1801</v>
       </c>
       <c r="I72" t="n">
-        <v>1822</v>
+        <v>1784</v>
       </c>
       <c r="J72" t="n">
-        <v>1825</v>
+        <v>1786</v>
       </c>
       <c r="K72" t="n">
-        <v>1310</v>
+        <v>51570</v>
       </c>
       <c r="L72" t="n">
-        <v>141399</v>
+        <v>590529</v>
       </c>
       <c r="M72" t="n">
-        <v>1825.085621535315</v>
+        <v>1787.491771176864</v>
       </c>
       <c r="N72" t="n">
-        <v>1822.969274355513</v>
+        <v>1786.13502261564</v>
       </c>
       <c r="O72" t="n">
-        <v>2.116347179802688</v>
+        <v>1.35674856122364</v>
       </c>
       <c r="P72" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q72" t="n">
         <v>0</v>
@@ -5657,19 +5665,19 @@
         <v>28</v>
       </c>
       <c r="B73" t="n">
-        <v>5461145</v>
+        <v>53839605</v>
       </c>
       <c r="C73" t="n">
-        <v>1705297500</v>
+        <v>1711431900</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SA24091705297500</t>
+          <t>SA24091711431900</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2024-01-15 13:45:00</t>
+          <t>2024-03-26 13:45:00</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5678,34 +5686,34 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1826</v>
+        <v>1790</v>
       </c>
       <c r="H73" t="n">
-        <v>1827</v>
+        <v>1794</v>
       </c>
       <c r="I73" t="n">
-        <v>1823</v>
+        <v>1786</v>
       </c>
       <c r="J73" t="n">
-        <v>1825</v>
+        <v>1789</v>
       </c>
       <c r="K73" t="n">
-        <v>849</v>
+        <v>23071</v>
       </c>
       <c r="L73" t="n">
-        <v>141321</v>
+        <v>593337</v>
       </c>
       <c r="M73" t="n">
-        <v>1825.057081023544</v>
+        <v>1787.994514117909</v>
       </c>
       <c r="N73" t="n">
-        <v>1823.338497199965</v>
+        <v>1786.655927594614</v>
       </c>
       <c r="O73" t="n">
-        <v>1.718583823578911</v>
+        <v>1.33858652329468</v>
       </c>
       <c r="P73" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q73" t="n">
         <v>0</v>
@@ -5729,19 +5737,19 @@
         <v>27</v>
       </c>
       <c r="B74" t="n">
-        <v>5493849</v>
+        <v>53870265</v>
       </c>
       <c r="C74" t="n">
-        <v>1705298400</v>
+        <v>1711432800</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SA24091705298400</t>
+          <t>SA24091711432800</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2024-01-15 14:00:00</t>
+          <t>2024-03-26 14:00:00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -5750,34 +5758,34 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1826</v>
+        <v>1789</v>
       </c>
       <c r="H74" t="n">
-        <v>1834</v>
+        <v>1790</v>
       </c>
       <c r="I74" t="n">
-        <v>1825</v>
+        <v>1778</v>
       </c>
       <c r="J74" t="n">
-        <v>1830</v>
+        <v>1781</v>
       </c>
       <c r="K74" t="n">
-        <v>3294</v>
+        <v>30823</v>
       </c>
       <c r="L74" t="n">
-        <v>141132</v>
+        <v>594030</v>
       </c>
       <c r="M74" t="n">
-        <v>1826.704720682362</v>
+        <v>1785.66300941194</v>
       </c>
       <c r="N74" t="n">
-        <v>1824.549679527244</v>
+        <v>1785.627577122866</v>
       </c>
       <c r="O74" t="n">
-        <v>2.155041155118624</v>
+        <v>0.03543228907346929</v>
       </c>
       <c r="P74" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q74" t="n">
         <v>0</v>
@@ -5801,19 +5809,19 @@
         <v>26</v>
       </c>
       <c r="B75" t="n">
-        <v>5520421</v>
+        <v>53900925</v>
       </c>
       <c r="C75" t="n">
-        <v>1705299300</v>
+        <v>1711433700</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>SA24091705299300</t>
+          <t>SA24091711433700</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2024-01-15 14:15:00</t>
+          <t>2024-03-26 14:15:00</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -5822,34 +5830,34 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1830</v>
+        <v>1781</v>
       </c>
       <c r="H75" t="n">
-        <v>1834</v>
+        <v>1792</v>
       </c>
       <c r="I75" t="n">
-        <v>1825</v>
+        <v>1780</v>
       </c>
       <c r="J75" t="n">
-        <v>1833</v>
+        <v>1791</v>
       </c>
       <c r="K75" t="n">
-        <v>2035</v>
+        <v>21692</v>
       </c>
       <c r="L75" t="n">
-        <v>141119</v>
+        <v>597394</v>
       </c>
       <c r="M75" t="n">
-        <v>1828.803147121575</v>
+        <v>1787.442006274626</v>
       </c>
       <c r="N75" t="n">
-        <v>1826.086101431381</v>
+        <v>1786.604381282345</v>
       </c>
       <c r="O75" t="n">
-        <v>2.717045690194027</v>
+        <v>0.8376249922814623</v>
       </c>
       <c r="P75" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q75" t="n">
         <v>0</v>
@@ -5873,19 +5881,19 @@
         <v>25</v>
       </c>
       <c r="B76" t="n">
-        <v>5551081</v>
+        <v>53927497</v>
       </c>
       <c r="C76" t="n">
-        <v>1705300200</v>
+        <v>1711434600</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>SA24091705300200</t>
+          <t>SA24091711434600</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2024-01-15 14:30:00</t>
+          <t>2024-03-26 14:30:00</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -5894,34 +5902,34 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1833</v>
+        <v>1791</v>
       </c>
       <c r="H76" t="n">
-        <v>1835</v>
+        <v>1791</v>
       </c>
       <c r="I76" t="n">
-        <v>1828</v>
+        <v>1778</v>
       </c>
       <c r="J76" t="n">
-        <v>1828</v>
+        <v>1783</v>
       </c>
       <c r="K76" t="n">
-        <v>2445</v>
+        <v>20659</v>
       </c>
       <c r="L76" t="n">
-        <v>140940</v>
+        <v>596125</v>
       </c>
       <c r="M76" t="n">
-        <v>1828.535431414384</v>
+        <v>1785.961337516418</v>
       </c>
       <c r="N76" t="n">
-        <v>1826.434082989312</v>
+        <v>1785.949039231009</v>
       </c>
       <c r="O76" t="n">
-        <v>2.101348425071819</v>
+        <v>0.01229828540817834</v>
       </c>
       <c r="P76" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q76" t="n">
         <v>0</v>
@@ -5945,19 +5953,19 @@
         <v>24</v>
       </c>
       <c r="B77" t="n">
-        <v>5583785</v>
+        <v>53958157</v>
       </c>
       <c r="C77" t="n">
-        <v>1705301100</v>
+        <v>1711435500</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>SA24091705301100</t>
+          <t>SA24091711435500</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2024-01-15 14:45:00</t>
+          <t>2024-03-26 14:45:00</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -5966,34 +5974,34 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1828</v>
+        <v>1782</v>
       </c>
       <c r="H77" t="n">
-        <v>1831</v>
+        <v>1785</v>
       </c>
       <c r="I77" t="n">
-        <v>1822</v>
+        <v>1780</v>
       </c>
       <c r="J77" t="n">
-        <v>1823</v>
+        <v>1783</v>
       </c>
       <c r="K77" t="n">
-        <v>3528</v>
+        <v>13110</v>
       </c>
       <c r="L77" t="n">
-        <v>140947</v>
+        <v>598384</v>
       </c>
       <c r="M77" t="n">
-        <v>1826.690287609589</v>
+        <v>1784.974225010945</v>
       </c>
       <c r="N77" t="n">
-        <v>1825.809704263982</v>
+        <v>1785.412850279917</v>
       </c>
       <c r="O77" t="n">
-        <v>0.8805833456069649</v>
+        <v>0.4386252689714638</v>
       </c>
       <c r="P77" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q77" t="n">
         <v>0</v>
@@ -6008,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="U77" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V77" t="inlineStr"/>
     </row>
@@ -6017,19 +6025,19 @@
         <v>23</v>
       </c>
       <c r="B78" t="n">
-        <v>5610357</v>
+        <v>53988817</v>
       </c>
       <c r="C78" t="n">
-        <v>1705302000</v>
+        <v>1711436400</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>SA24091705302000</t>
+          <t>SA24091711436400</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2024-01-15 15:00:00</t>
+          <t>2024-03-26 15:00:00</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6038,34 +6046,34 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1823</v>
+        <v>1783</v>
       </c>
       <c r="H78" t="n">
-        <v>1827</v>
+        <v>1789</v>
       </c>
       <c r="I78" t="n">
-        <v>1822</v>
+        <v>1777</v>
       </c>
       <c r="J78" t="n">
-        <v>1823</v>
+        <v>1779</v>
       </c>
       <c r="K78" t="n">
-        <v>2409</v>
+        <v>30492</v>
       </c>
       <c r="L78" t="n">
-        <v>141290</v>
+        <v>599583</v>
       </c>
       <c r="M78" t="n">
-        <v>1825.460191739726</v>
+        <v>1782.982816673964</v>
       </c>
       <c r="N78" t="n">
-        <v>1825.298848943258</v>
+        <v>1784.24687750175</v>
       </c>
       <c r="O78" t="n">
-        <v>0.1613427964682614</v>
+        <v>1.264060827786352</v>
       </c>
       <c r="P78" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q78" t="n">
         <v>0</v>
@@ -6080,7 +6088,7 @@
         <v>0</v>
       </c>
       <c r="U78" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V78" t="inlineStr"/>
     </row>
@@ -6089,19 +6097,19 @@
         <v>22</v>
       </c>
       <c r="B79" t="n">
-        <v>6182676</v>
+        <v>54062401</v>
       </c>
       <c r="C79" t="n">
-        <v>1705324500</v>
+        <v>1711458900</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>SA24091705324500</t>
+          <t>SA24091711458900</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2024-01-15 21:15:00</t>
+          <t>2024-03-26 21:15:00</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6110,34 +6118,34 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1825</v>
+        <v>1782</v>
       </c>
       <c r="H79" t="n">
-        <v>1851</v>
+        <v>1802</v>
       </c>
       <c r="I79" t="n">
-        <v>1825</v>
+        <v>1780</v>
       </c>
       <c r="J79" t="n">
-        <v>1848</v>
+        <v>1792</v>
       </c>
       <c r="K79" t="n">
-        <v>18148</v>
+        <v>88922</v>
       </c>
       <c r="L79" t="n">
-        <v>141514</v>
+        <v>598031</v>
       </c>
       <c r="M79" t="n">
-        <v>1832.973461159818</v>
+        <v>1785.988544449309</v>
       </c>
       <c r="N79" t="n">
-        <v>1829.426330953575</v>
+        <v>1785.656536137795</v>
       </c>
       <c r="O79" t="n">
-        <v>3.547130206242855</v>
+        <v>0.3320083115138459</v>
       </c>
       <c r="P79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79" t="n">
         <v>0</v>
@@ -6146,36 +6154,34 @@
         <v>0</v>
       </c>
       <c r="S79" t="n">
-        <v>-2848</v>
+        <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="U79" t="n">
         <v>1</v>
       </c>
-      <c r="V79" t="n">
-        <v>48</v>
-      </c>
+      <c r="V79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B80" t="n">
-        <v>6182677</v>
+        <v>54093061</v>
       </c>
       <c r="C80" t="n">
-        <v>1705325400</v>
+        <v>1711459800</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>SA24091705325400</t>
+          <t>SA24091711459800</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2024-01-15 21:30:00</t>
+          <t>2024-03-26 21:30:00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6184,34 +6190,34 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1848</v>
+        <v>1792</v>
       </c>
       <c r="H80" t="n">
-        <v>1850</v>
+        <v>1796</v>
       </c>
       <c r="I80" t="n">
-        <v>1844</v>
+        <v>1788</v>
       </c>
       <c r="J80" t="n">
-        <v>1847</v>
+        <v>1795</v>
       </c>
       <c r="K80" t="n">
-        <v>3979</v>
+        <v>24290</v>
       </c>
       <c r="L80" t="n">
-        <v>141372</v>
+        <v>602981</v>
       </c>
       <c r="M80" t="n">
-        <v>1837.648974106545</v>
+        <v>1788.992362966206</v>
       </c>
       <c r="N80" t="n">
-        <v>1832.62154350747</v>
+        <v>1787.355347749105</v>
       </c>
       <c r="O80" t="n">
-        <v>5.02743059907516</v>
+        <v>1.637015217100725</v>
       </c>
       <c r="P80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80" t="n">
         <v>0</v>
@@ -6235,19 +6241,19 @@
         <v>20</v>
       </c>
       <c r="B81" t="n">
-        <v>6184716</v>
+        <v>54123721</v>
       </c>
       <c r="C81" t="n">
-        <v>1705326300</v>
+        <v>1711460700</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>SA24091705326300</t>
+          <t>SA24091711460700</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2024-01-15 21:45:00</t>
+          <t>2024-03-26 21:45:00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6256,34 +6262,34 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1847</v>
+        <v>1795</v>
       </c>
       <c r="H81" t="n">
-        <v>1847</v>
+        <v>1797</v>
       </c>
       <c r="I81" t="n">
-        <v>1839</v>
+        <v>1790</v>
       </c>
       <c r="J81" t="n">
-        <v>1840</v>
+        <v>1790</v>
       </c>
       <c r="K81" t="n">
-        <v>3721</v>
+        <v>16386</v>
       </c>
       <c r="L81" t="n">
-        <v>141896</v>
+        <v>604918</v>
       </c>
       <c r="M81" t="n">
-        <v>1838.432649404363</v>
+        <v>1789.328241977471</v>
       </c>
       <c r="N81" t="n">
-        <v>1833.963081051566</v>
+        <v>1787.836193612904</v>
       </c>
       <c r="O81" t="n">
-        <v>4.469568352797296</v>
+        <v>1.492048364566472</v>
       </c>
       <c r="P81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81" t="n">
         <v>0</v>
@@ -6307,19 +6313,19 @@
         <v>19</v>
       </c>
       <c r="B82" t="n">
-        <v>6184717</v>
+        <v>54152337</v>
       </c>
       <c r="C82" t="n">
-        <v>1705327200</v>
+        <v>1711461600</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>SA24091705327200</t>
+          <t>SA24091711461600</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2024-01-15 22:00:00</t>
+          <t>2024-03-26 22:00:00</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6328,34 +6334,34 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1840</v>
+        <v>1791</v>
       </c>
       <c r="H82" t="n">
-        <v>1846</v>
+        <v>1795</v>
       </c>
       <c r="I82" t="n">
-        <v>1840</v>
+        <v>1783</v>
       </c>
       <c r="J82" t="n">
-        <v>1844</v>
+        <v>1785</v>
       </c>
       <c r="K82" t="n">
-        <v>2222</v>
+        <v>26455</v>
       </c>
       <c r="L82" t="n">
-        <v>141867</v>
+        <v>605565</v>
       </c>
       <c r="M82" t="n">
-        <v>1840.288432936242</v>
+        <v>1787.885494651647</v>
       </c>
       <c r="N82" t="n">
-        <v>1835.787975405827</v>
+        <v>1787.320522046922</v>
       </c>
       <c r="O82" t="n">
-        <v>4.500457530415588</v>
+        <v>0.5649726047256536</v>
       </c>
       <c r="P82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q82" t="n">
         <v>0</v>
@@ -6379,19 +6385,19 @@
         <v>18</v>
       </c>
       <c r="B83" t="n">
-        <v>6184718</v>
+        <v>54184019</v>
       </c>
       <c r="C83" t="n">
-        <v>1705328100</v>
+        <v>1711462500</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SA24091705328100</t>
+          <t>SA24091711462500</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2024-01-15 22:15:00</t>
+          <t>2024-03-26 22:15:00</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6400,34 +6406,34 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1844</v>
+        <v>1785</v>
       </c>
       <c r="H83" t="n">
-        <v>1848</v>
+        <v>1786</v>
       </c>
       <c r="I83" t="n">
-        <v>1840</v>
+        <v>1779</v>
       </c>
       <c r="J83" t="n">
-        <v>1847</v>
+        <v>1784</v>
       </c>
       <c r="K83" t="n">
-        <v>2275</v>
+        <v>25125</v>
       </c>
       <c r="L83" t="n">
-        <v>141676</v>
+        <v>606406</v>
       </c>
       <c r="M83" t="n">
-        <v>1842.525621957495</v>
+        <v>1786.590329767765</v>
       </c>
       <c r="N83" t="n">
-        <v>1837.82652533204</v>
+        <v>1786.716790765663</v>
       </c>
       <c r="O83" t="n">
-        <v>4.699096625455013</v>
+        <v>0.1264609978979934</v>
       </c>
       <c r="P83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83" t="n">
         <v>0</v>
@@ -6442,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="U83" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V83" t="inlineStr"/>
     </row>
@@ -6451,19 +6457,19 @@
         <v>17</v>
       </c>
       <c r="B84" t="n">
-        <v>6184719</v>
+        <v>54214679</v>
       </c>
       <c r="C84" t="n">
-        <v>1705329000</v>
+        <v>1711463400</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>SA24091705329000</t>
+          <t>SA24091711463400</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2024-01-15 22:30:00</t>
+          <t>2024-03-26 22:30:00</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6472,34 +6478,34 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1847</v>
+        <v>1784</v>
       </c>
       <c r="H84" t="n">
-        <v>1848</v>
+        <v>1786</v>
       </c>
       <c r="I84" t="n">
-        <v>1845</v>
+        <v>1781</v>
       </c>
       <c r="J84" t="n">
-        <v>1847</v>
+        <v>1783</v>
       </c>
       <c r="K84" t="n">
-        <v>1411</v>
+        <v>12869</v>
       </c>
       <c r="L84" t="n">
-        <v>141701</v>
+        <v>610094</v>
       </c>
       <c r="M84" t="n">
-        <v>1844.017081304997</v>
+        <v>1785.39355317851</v>
       </c>
       <c r="N84" t="n">
-        <v>1839.494429817123</v>
+        <v>1786.041010626451</v>
       </c>
       <c r="O84" t="n">
-        <v>4.522651487873418</v>
+        <v>0.6474574479414059</v>
       </c>
       <c r="P84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84" t="n">
         <v>0</v>
@@ -6514,7 +6520,7 @@
         <v>0</v>
       </c>
       <c r="U84" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V84" t="inlineStr"/>
     </row>
@@ -6523,19 +6529,19 @@
         <v>16</v>
       </c>
       <c r="B85" t="n">
-        <v>6184720</v>
+        <v>54244317</v>
       </c>
       <c r="C85" t="n">
-        <v>1705329900</v>
+        <v>1711464300</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>SA24091705329900</t>
+          <t>SA24091711464300</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2024-01-15 22:45:00</t>
+          <t>2024-03-26 22:45:00</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6544,34 +6550,34 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1846</v>
+        <v>1783</v>
       </c>
       <c r="H85" t="n">
-        <v>1847</v>
+        <v>1794</v>
       </c>
       <c r="I85" t="n">
-        <v>1841</v>
+        <v>1782</v>
       </c>
       <c r="J85" t="n">
-        <v>1845</v>
+        <v>1789</v>
       </c>
       <c r="K85" t="n">
-        <v>1539</v>
+        <v>27507</v>
       </c>
       <c r="L85" t="n">
-        <v>141724</v>
+        <v>610610</v>
       </c>
       <c r="M85" t="n">
-        <v>1844.344720869998</v>
+        <v>1786.595702119007</v>
       </c>
       <c r="N85" t="n">
-        <v>1840.495442577646</v>
+        <v>1786.579008694369</v>
       </c>
       <c r="O85" t="n">
-        <v>3.849278292351528</v>
+        <v>0.01669342463742396</v>
       </c>
       <c r="P85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q85" t="n">
         <v>0</v>
@@ -6595,19 +6601,19 @@
         <v>15</v>
       </c>
       <c r="B86" t="n">
-        <v>6184721</v>
+        <v>54275999</v>
       </c>
       <c r="C86" t="n">
-        <v>1705330800</v>
+        <v>1711465200</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>SA24091705330800</t>
+          <t>SA24091711465200</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2024-01-15 23:00:00</t>
+          <t>2024-03-26 23:00:00</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6616,34 +6622,34 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1845</v>
+        <v>1789</v>
       </c>
       <c r="H86" t="n">
-        <v>1847</v>
+        <v>1792</v>
       </c>
       <c r="I86" t="n">
-        <v>1842</v>
+        <v>1785</v>
       </c>
       <c r="J86" t="n">
-        <v>1845</v>
+        <v>1789</v>
       </c>
       <c r="K86" t="n">
-        <v>1259</v>
+        <v>24065</v>
       </c>
       <c r="L86" t="n">
-        <v>141354</v>
+        <v>610609</v>
       </c>
       <c r="M86" t="n">
-        <v>1844.563147246665</v>
+        <v>1787.397134746005</v>
       </c>
       <c r="N86" t="n">
-        <v>1841.314453018074</v>
+        <v>1787.019188931757</v>
       </c>
       <c r="O86" t="n">
-        <v>3.248694228591148</v>
+        <v>0.3779458142480507</v>
       </c>
       <c r="P86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86" t="n">
         <v>0</v>
@@ -6667,19 +6673,19 @@
         <v>14</v>
       </c>
       <c r="B87" t="n">
-        <v>6291009</v>
+        <v>54310747</v>
       </c>
       <c r="C87" t="n">
-        <v>1705367700</v>
+        <v>1711502100</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>SA24091705367700</t>
+          <t>SA24091711502100</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2024-01-16 09:15:00</t>
+          <t>2024-03-27 09:15:00</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -6688,34 +6694,34 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1847</v>
+        <v>1788</v>
       </c>
       <c r="H87" t="n">
-        <v>1860</v>
+        <v>1789</v>
       </c>
       <c r="I87" t="n">
-        <v>1847</v>
+        <v>1756</v>
       </c>
       <c r="J87" t="n">
-        <v>1854</v>
+        <v>1758</v>
       </c>
       <c r="K87" t="n">
-        <v>9096</v>
+        <v>101785</v>
       </c>
       <c r="L87" t="n">
-        <v>141340</v>
+        <v>608382</v>
       </c>
       <c r="M87" t="n">
-        <v>1847.708764831111</v>
+        <v>1777.59808983067</v>
       </c>
       <c r="N87" t="n">
-        <v>1843.620916105697</v>
+        <v>1781.742972762346</v>
       </c>
       <c r="O87" t="n">
-        <v>4.087848725413323</v>
+        <v>4.144882931676193</v>
       </c>
       <c r="P87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87" t="n">
         <v>0</v>
@@ -6730,7 +6736,7 @@
         <v>0</v>
       </c>
       <c r="U87" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V87" t="inlineStr"/>
     </row>
@@ -6739,19 +6745,19 @@
         <v>13</v>
       </c>
       <c r="B88" t="n">
-        <v>6321669</v>
+        <v>54339363</v>
       </c>
       <c r="C88" t="n">
-        <v>1705368600</v>
+        <v>1711503000</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>SA24091705368600</t>
+          <t>SA24091711503000</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2024-01-16 09:30:00</t>
+          <t>2024-03-27 09:30:00</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -6760,31 +6766,31 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1854</v>
+        <v>1759</v>
       </c>
       <c r="H88" t="n">
-        <v>1856</v>
+        <v>1761</v>
       </c>
       <c r="I88" t="n">
-        <v>1849</v>
+        <v>1746</v>
       </c>
       <c r="J88" t="n">
-        <v>1851</v>
+        <v>1752</v>
       </c>
       <c r="K88" t="n">
-        <v>3048</v>
+        <v>103031</v>
       </c>
       <c r="L88" t="n">
-        <v>140815</v>
+        <v>617158</v>
       </c>
       <c r="M88" t="n">
-        <v>1848.805843220741</v>
+        <v>1769.065393220447</v>
       </c>
       <c r="N88" t="n">
-        <v>1844.962567722843</v>
+        <v>1776.335159532829</v>
       </c>
       <c r="O88" t="n">
-        <v>3.843275497897594</v>
+        <v>7.269766312381762</v>
       </c>
       <c r="P88" t="n">
         <v>0</v>
@@ -6796,34 +6802,36 @@
         <v>0</v>
       </c>
       <c r="S88" t="n">
-        <v>0</v>
+        <v>-2848</v>
       </c>
       <c r="T88" t="n">
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="U88" t="n">
-        <v>1</v>
-      </c>
-      <c r="V88" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="V88" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B89" t="n">
-        <v>6352330</v>
+        <v>54369001</v>
       </c>
       <c r="C89" t="n">
-        <v>1705369500</v>
+        <v>1711503900</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>SA24091705369500</t>
+          <t>SA24091711503900</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2024-01-16 09:45:00</t>
+          <t>2024-03-27 09:45:00</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -6832,31 +6840,31 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1852</v>
+        <v>1752</v>
       </c>
       <c r="H89" t="n">
-        <v>1859</v>
+        <v>1758</v>
       </c>
       <c r="I89" t="n">
-        <v>1852</v>
+        <v>1750</v>
       </c>
       <c r="J89" t="n">
-        <v>1853</v>
+        <v>1754</v>
       </c>
       <c r="K89" t="n">
-        <v>3020</v>
+        <v>33283</v>
       </c>
       <c r="L89" t="n">
-        <v>140490</v>
+        <v>632138</v>
       </c>
       <c r="M89" t="n">
-        <v>1850.203895480494</v>
+        <v>1764.043595480298</v>
       </c>
       <c r="N89" t="n">
-        <v>1846.423919045963</v>
+        <v>1772.274221435951</v>
       </c>
       <c r="O89" t="n">
-        <v>3.779976434531363</v>
+        <v>8.23062595565284</v>
       </c>
       <c r="P89" t="n">
         <v>0</v>
@@ -6874,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="U89" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V89" t="inlineStr"/>
     </row>
@@ -6883,19 +6891,19 @@
         <v>11</v>
       </c>
       <c r="B90" t="n">
-        <v>6382990</v>
+        <v>54400683</v>
       </c>
       <c r="C90" t="n">
-        <v>1705370400</v>
+        <v>1711504800</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>SA24091705370400</t>
+          <t>SA24091711504800</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2024-01-16 10:00:00</t>
+          <t>2024-03-27 10:00:00</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -6904,31 +6912,31 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1853</v>
+        <v>1754</v>
       </c>
       <c r="H90" t="n">
-        <v>1856</v>
+        <v>1765</v>
       </c>
       <c r="I90" t="n">
-        <v>1849</v>
+        <v>1750</v>
       </c>
       <c r="J90" t="n">
-        <v>1856</v>
+        <v>1761</v>
       </c>
       <c r="K90" t="n">
-        <v>2006</v>
+        <v>36591</v>
       </c>
       <c r="L90" t="n">
-        <v>140541</v>
+        <v>634779</v>
       </c>
       <c r="M90" t="n">
-        <v>1852.135930320329</v>
+        <v>1763.029063653532</v>
       </c>
       <c r="N90" t="n">
-        <v>1848.165024673969</v>
+        <v>1770.224362993051</v>
       </c>
       <c r="O90" t="n">
-        <v>3.970905646360052</v>
+        <v>7.195299339518442</v>
       </c>
       <c r="P90" t="n">
         <v>0</v>
@@ -6946,7 +6954,7 @@
         <v>0</v>
       </c>
       <c r="U90" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V90" t="inlineStr"/>
     </row>
@@ -6955,19 +6963,19 @@
         <v>10</v>
       </c>
       <c r="B91" t="n">
-        <v>6407518</v>
+        <v>54431343</v>
       </c>
       <c r="C91" t="n">
-        <v>1705371300</v>
+        <v>1711505700</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>SA24091705371300</t>
+          <t>SA24091711505700</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2024-01-16 10:15:00</t>
+          <t>2024-03-27 10:15:00</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -6976,31 +6984,31 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1855</v>
+        <v>1760</v>
       </c>
       <c r="H91" t="n">
-        <v>1868</v>
+        <v>1764</v>
       </c>
       <c r="I91" t="n">
-        <v>1854</v>
+        <v>1752</v>
       </c>
       <c r="J91" t="n">
-        <v>1861</v>
+        <v>1756</v>
       </c>
       <c r="K91" t="n">
-        <v>5839</v>
+        <v>24762</v>
       </c>
       <c r="L91" t="n">
-        <v>140543</v>
+        <v>630806</v>
       </c>
       <c r="M91" t="n">
-        <v>1855.090620213553</v>
+        <v>1760.686042435688</v>
       </c>
       <c r="N91" t="n">
-        <v>1850.49865655143</v>
+        <v>1767.638115176132</v>
       </c>
       <c r="O91" t="n">
-        <v>4.591963662123362</v>
+        <v>6.952072740444009</v>
       </c>
       <c r="P91" t="n">
         <v>0</v>
@@ -7018,7 +7026,7 @@
         <v>0</v>
       </c>
       <c r="U91" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V91" t="inlineStr"/>
     </row>
@@ -7027,19 +7035,19 @@
         <v>9</v>
       </c>
       <c r="B92" t="n">
-        <v>6468838</v>
+        <v>54489597</v>
       </c>
       <c r="C92" t="n">
-        <v>1705373100</v>
+        <v>1711507500</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>SA24091705373100</t>
+          <t>SA24091711507500</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2024-01-16 10:45:00</t>
+          <t>2024-03-27 10:45:00</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -7048,31 +7056,31 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1860</v>
+        <v>1756</v>
       </c>
       <c r="H92" t="n">
-        <v>1865</v>
+        <v>1756</v>
       </c>
       <c r="I92" t="n">
-        <v>1858</v>
+        <v>1749</v>
       </c>
       <c r="J92" t="n">
-        <v>1862</v>
+        <v>1753</v>
       </c>
       <c r="K92" t="n">
-        <v>3231</v>
+        <v>20617</v>
       </c>
       <c r="L92" t="n">
-        <v>139812</v>
+        <v>632138</v>
       </c>
       <c r="M92" t="n">
-        <v>1857.393746809035</v>
+        <v>1758.124028290459</v>
       </c>
       <c r="N92" t="n">
-        <v>1852.589809905715</v>
+        <v>1764.976639689563</v>
       </c>
       <c r="O92" t="n">
-        <v>4.803936903320391</v>
+        <v>6.852611399103807</v>
       </c>
       <c r="P92" t="n">
         <v>0</v>
@@ -7090,7 +7098,7 @@
         <v>0</v>
       </c>
       <c r="U92" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V92" t="inlineStr"/>
     </row>
@@ -7099,19 +7107,19 @@
         <v>8</v>
       </c>
       <c r="B93" t="n">
-        <v>6497454</v>
+        <v>54520257</v>
       </c>
       <c r="C93" t="n">
-        <v>1705374000</v>
+        <v>1711508400</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>SA24091705374000</t>
+          <t>SA24091711508400</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2024-01-16 11:00:00</t>
+          <t>2024-03-27 11:00:00</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -7120,31 +7128,31 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1864</v>
+        <v>1752</v>
       </c>
       <c r="H93" t="n">
-        <v>1882</v>
+        <v>1754</v>
       </c>
       <c r="I93" t="n">
-        <v>1863</v>
+        <v>1744</v>
       </c>
       <c r="J93" t="n">
-        <v>1882</v>
+        <v>1750</v>
       </c>
       <c r="K93" t="n">
-        <v>13026</v>
+        <v>26651</v>
       </c>
       <c r="L93" t="n">
-        <v>140095</v>
+        <v>635550</v>
       </c>
       <c r="M93" t="n">
-        <v>1865.595831206024</v>
+        <v>1755.416018860306</v>
       </c>
       <c r="N93" t="n">
-        <v>1857.937117195585</v>
+        <v>1762.25361429146</v>
       </c>
       <c r="O93" t="n">
-        <v>7.658714010438644</v>
+        <v>6.837595431154341</v>
       </c>
       <c r="P93" t="n">
         <v>0</v>
@@ -7162,7 +7170,7 @@
         <v>0</v>
       </c>
       <c r="U93" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V93" t="inlineStr"/>
     </row>
@@ -7171,19 +7179,19 @@
         <v>7</v>
       </c>
       <c r="B94" t="n">
-        <v>6528115</v>
+        <v>54550917</v>
       </c>
       <c r="C94" t="n">
-        <v>1705374900</v>
+        <v>1711509300</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>SA24091705374900</t>
+          <t>SA24091711509300</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2024-01-16 11:15:00</t>
+          <t>2024-03-27 11:15:00</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -7192,31 +7200,31 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1881</v>
+        <v>1750</v>
       </c>
       <c r="H94" t="n">
-        <v>1888</v>
+        <v>1755</v>
       </c>
       <c r="I94" t="n">
-        <v>1875</v>
+        <v>1745</v>
       </c>
       <c r="J94" t="n">
-        <v>1887</v>
+        <v>1748</v>
       </c>
       <c r="K94" t="n">
-        <v>10788</v>
+        <v>19094</v>
       </c>
       <c r="L94" t="n">
-        <v>138836</v>
+        <v>636153</v>
       </c>
       <c r="M94" t="n">
-        <v>1872.730554137349</v>
+        <v>1752.944012573537</v>
       </c>
       <c r="N94" t="n">
-        <v>1863.221277705478</v>
+        <v>1759.662048056649</v>
       </c>
       <c r="O94" t="n">
-        <v>9.50927643187083</v>
+        <v>6.718035483111862</v>
       </c>
       <c r="P94" t="n">
         <v>0</v>
@@ -7234,7 +7242,7 @@
         <v>0</v>
       </c>
       <c r="U94" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V94" t="inlineStr"/>
     </row>
@@ -7243,19 +7251,19 @@
         <v>6</v>
       </c>
       <c r="B95" t="n">
-        <v>6556731</v>
+        <v>54581577</v>
       </c>
       <c r="C95" t="n">
-        <v>1705375800</v>
+        <v>1711510200</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>SA24091705375800</t>
+          <t>SA24091711510200</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2024-01-16 11:30:00</t>
+          <t>2024-03-27 11:30:00</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -7264,31 +7272,31 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1887</v>
+        <v>1748</v>
       </c>
       <c r="H95" t="n">
-        <v>1896</v>
+        <v>1748</v>
       </c>
       <c r="I95" t="n">
-        <v>1877</v>
+        <v>1737</v>
       </c>
       <c r="J95" t="n">
-        <v>1883</v>
+        <v>1747</v>
       </c>
       <c r="K95" t="n">
-        <v>12383</v>
+        <v>32341</v>
       </c>
       <c r="L95" t="n">
-        <v>139751</v>
+        <v>640028</v>
       </c>
       <c r="M95" t="n">
-        <v>1876.153702758233</v>
+        <v>1750.962675049025</v>
       </c>
       <c r="N95" t="n">
-        <v>1866.817409031755</v>
+        <v>1757.359857500895</v>
       </c>
       <c r="O95" t="n">
-        <v>9.336293726478289</v>
+        <v>6.397182451869639</v>
       </c>
       <c r="P95" t="n">
         <v>0</v>
@@ -7306,7 +7314,7 @@
         <v>0</v>
       </c>
       <c r="U95" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V95" t="inlineStr"/>
     </row>
@@ -7315,19 +7323,19 @@
         <v>5</v>
       </c>
       <c r="B96" t="n">
-        <v>6751933</v>
+        <v>54612237</v>
       </c>
       <c r="C96" t="n">
-        <v>1705383900</v>
+        <v>1711518300</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>SA24091705383900</t>
+          <t>SA24091711518300</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2024-01-16 13:45:00</t>
+          <t>2024-03-27 13:45:00</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -7336,31 +7344,31 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1884</v>
+        <v>1746</v>
       </c>
       <c r="H96" t="n">
-        <v>1893</v>
+        <v>1752</v>
       </c>
       <c r="I96" t="n">
-        <v>1880</v>
+        <v>1741</v>
       </c>
       <c r="J96" t="n">
-        <v>1880</v>
+        <v>1747</v>
       </c>
       <c r="K96" t="n">
-        <v>11248</v>
+        <v>27050</v>
       </c>
       <c r="L96" t="n">
-        <v>139953</v>
+        <v>642025</v>
       </c>
       <c r="M96" t="n">
-        <v>1877.435801838822</v>
+        <v>1749.641783366017</v>
       </c>
       <c r="N96" t="n">
-        <v>1869.214243753254</v>
+        <v>1755.476247046186</v>
       </c>
       <c r="O96" t="n">
-        <v>8.221558085568404</v>
+        <v>5.834463680169847</v>
       </c>
       <c r="P96" t="n">
         <v>0</v>
@@ -7378,7 +7386,7 @@
         <v>0</v>
       </c>
       <c r="U96" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V96" t="inlineStr"/>
     </row>
@@ -7387,19 +7395,19 @@
         <v>4</v>
       </c>
       <c r="B97" t="n">
-        <v>6780549</v>
+        <v>54641875</v>
       </c>
       <c r="C97" t="n">
-        <v>1705384800</v>
+        <v>1711519200</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>SA24091705384800</t>
+          <t>SA24091711519200</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2024-01-16 14:00:00</t>
+          <t>2024-03-27 14:00:00</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -7408,31 +7416,31 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1881</v>
+        <v>1746</v>
       </c>
       <c r="H97" t="n">
-        <v>1884</v>
+        <v>1754</v>
       </c>
       <c r="I97" t="n">
-        <v>1860</v>
+        <v>1744</v>
       </c>
       <c r="J97" t="n">
-        <v>1865</v>
+        <v>1747</v>
       </c>
       <c r="K97" t="n">
-        <v>13723</v>
+        <v>20508</v>
       </c>
       <c r="L97" t="n">
-        <v>139841</v>
+        <v>644598</v>
       </c>
       <c r="M97" t="n">
-        <v>1873.290534559215</v>
+        <v>1748.761188910678</v>
       </c>
       <c r="N97" t="n">
-        <v>1868.448017616298</v>
+        <v>1753.935111219607</v>
       </c>
       <c r="O97" t="n">
-        <v>4.842516942916518</v>
+        <v>5.173922308928923</v>
       </c>
       <c r="P97" t="n">
         <v>0</v>
@@ -7450,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="U97" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V97" t="inlineStr"/>
     </row>
@@ -7459,19 +7467,19 @@
         <v>3</v>
       </c>
       <c r="B98" t="n">
-        <v>6811209</v>
+        <v>54671513</v>
       </c>
       <c r="C98" t="n">
-        <v>1705385700</v>
+        <v>1711520100</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>SA24091705385700</t>
+          <t>SA24091711520100</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2024-01-16 14:15:00</t>
+          <t>2024-03-27 14:15:00</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -7480,31 +7488,31 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1865</v>
+        <v>1747</v>
       </c>
       <c r="H98" t="n">
-        <v>1869</v>
+        <v>1750</v>
       </c>
       <c r="I98" t="n">
-        <v>1855</v>
+        <v>1744</v>
       </c>
       <c r="J98" t="n">
-        <v>1858</v>
+        <v>1748</v>
       </c>
       <c r="K98" t="n">
-        <v>10064</v>
+        <v>15854</v>
       </c>
       <c r="L98" t="n">
-        <v>138328</v>
+        <v>644814</v>
       </c>
       <c r="M98" t="n">
-        <v>1868.193689706143</v>
+        <v>1748.507459273786</v>
       </c>
       <c r="N98" t="n">
-        <v>1866.548378049698</v>
+        <v>1752.856000088769</v>
       </c>
       <c r="O98" t="n">
-        <v>1.645311656444846</v>
+        <v>4.34854081498338</v>
       </c>
       <c r="P98" t="n">
         <v>0</v>
@@ -7522,7 +7530,7 @@
         <v>0</v>
       </c>
       <c r="U98" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="V98" t="inlineStr"/>
     </row>
@@ -7531,19 +7539,19 @@
         <v>2</v>
       </c>
       <c r="B99" t="n">
-        <v>6843913</v>
+        <v>54701151</v>
       </c>
       <c r="C99" t="n">
-        <v>1705386600</v>
+        <v>1711521000</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>SA24091705386600</t>
+          <t>SA24091711521000</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2024-01-16 14:30:00</t>
+          <t>2024-03-27 14:30:00</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -7552,31 +7560,31 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1859</v>
+        <v>1747</v>
       </c>
       <c r="H99" t="n">
-        <v>1863</v>
+        <v>1754</v>
       </c>
       <c r="I99" t="n">
-        <v>1856</v>
+        <v>1746</v>
       </c>
       <c r="J99" t="n">
-        <v>1859</v>
+        <v>1752</v>
       </c>
       <c r="K99" t="n">
-        <v>4788</v>
+        <v>20194</v>
       </c>
       <c r="L99" t="n">
-        <v>137093</v>
+        <v>645389</v>
       </c>
       <c r="M99" t="n">
-        <v>1865.129126470762</v>
+        <v>1749.671639515857</v>
       </c>
       <c r="N99" t="n">
-        <v>1865.175945677026</v>
+        <v>1752.700363708993</v>
       </c>
       <c r="O99" t="n">
-        <v>0.04681920626330793</v>
+        <v>3.028724193135531</v>
       </c>
       <c r="P99" t="n">
         <v>0</v>
@@ -7603,19 +7611,19 @@
         <v>1</v>
       </c>
       <c r="B100" t="n">
-        <v>6870485</v>
+        <v>54730789</v>
       </c>
       <c r="C100" t="n">
-        <v>1705387500</v>
+        <v>1711521900</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>SA24091705387500</t>
+          <t>SA24091711521900</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2024-01-16 14:45:00</t>
+          <t>2024-03-27 14:45:00</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -7624,31 +7632,31 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1860</v>
+        <v>1751</v>
       </c>
       <c r="H100" t="n">
-        <v>1866</v>
+        <v>1752</v>
       </c>
       <c r="I100" t="n">
-        <v>1857</v>
+        <v>1738</v>
       </c>
       <c r="J100" t="n">
-        <v>1865</v>
+        <v>1740</v>
       </c>
       <c r="K100" t="n">
-        <v>2877</v>
+        <v>33464</v>
       </c>
       <c r="L100" t="n">
-        <v>137012</v>
+        <v>645270</v>
       </c>
       <c r="M100" t="n">
-        <v>1865.086084313842</v>
+        <v>1746.447759677238</v>
       </c>
       <c r="N100" t="n">
-        <v>1865.14395555393</v>
+        <v>1750.391206670994</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05787124008838873</v>
+        <v>3.943446993755742</v>
       </c>
       <c r="P100" t="n">
         <v>0</v>
@@ -7675,19 +7683,19 @@
         <v>0</v>
       </c>
       <c r="B101" t="n">
-        <v>6903189</v>
+        <v>54761449</v>
       </c>
       <c r="C101" t="n">
-        <v>1705388400</v>
+        <v>1711522800</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>SA24091705388400</t>
+          <t>SA24091711522800</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2024-01-16 15:00:00</t>
+          <t>2024-03-27 15:00:00</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -7696,40 +7704,40 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1865</v>
+        <v>1741</v>
       </c>
       <c r="H101" t="n">
-        <v>1875</v>
+        <v>1742</v>
       </c>
       <c r="I101" t="n">
-        <v>1860</v>
+        <v>1730</v>
       </c>
       <c r="J101" t="n">
-        <v>1874</v>
+        <v>1739</v>
       </c>
       <c r="K101" t="n">
-        <v>4500</v>
+        <v>50617</v>
       </c>
       <c r="L101" t="n">
-        <v>136609</v>
+        <v>647812</v>
       </c>
       <c r="M101" t="n">
-        <v>1868.057389542561</v>
+        <v>1743.965173118159</v>
       </c>
       <c r="N101" t="n">
-        <v>1866.754145453215</v>
+        <v>1748.320078185359</v>
       </c>
       <c r="O101" t="n">
-        <v>1.303244089345981</v>
+        <v>4.354905067199752</v>
       </c>
       <c r="P101" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q101" t="n">
-        <v>0</v>
+        <v>1774</v>
       </c>
       <c r="R101" t="n">
-        <v>0</v>
+        <v>1739</v>
       </c>
       <c r="S101" t="n">
         <v>0</v>
@@ -7738,7 +7746,7 @@
         <v>0</v>
       </c>
       <c r="U101" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="V101" t="inlineStr"/>
     </row>
